--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1488,6 +1488,12 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-13</t>
   </si>
 </sst>
 </file>
@@ -13000,6 +13006,52 @@
         <v>0.3561</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>492</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.6173</v>
+      </c>
+      <c r="C487" t="n">
+        <v>2.8536</v>
+      </c>
+      <c r="D487" t="n">
+        <v>3.8306</v>
+      </c>
+      <c r="E487" t="n">
+        <v>-4.5631</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.3615</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1.0645</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>493</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.6135</v>
+      </c>
+      <c r="C488" t="n">
+        <v>3.7924</v>
+      </c>
+      <c r="D488" t="n">
+        <v>2.2913</v>
+      </c>
+      <c r="E488" t="n">
+        <v>-0.373</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.0214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1494,6 +1494,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-16</t>
   </si>
 </sst>
 </file>
@@ -13052,6 +13055,29 @@
         <v>1.0214</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>494</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1.1317</v>
+      </c>
+      <c r="C489" t="n">
+        <v>2.3077</v>
+      </c>
+      <c r="D489" t="n">
+        <v>2.3159</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2.3145</v>
+      </c>
+      <c r="F489" t="n">
+        <v>2.549</v>
+      </c>
+      <c r="G489" t="n">
+        <v>2.5592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1497,6 +1497,15 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-19</t>
   </si>
 </sst>
 </file>
@@ -13078,6 +13087,75 @@
         <v>2.5592</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>495</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1.5508</v>
+      </c>
+      <c r="D490" t="n">
+        <v>-0.2597</v>
+      </c>
+      <c r="E490" t="n">
+        <v>-0.8317</v>
+      </c>
+      <c r="F490" t="n">
+        <v>-1.5296</v>
+      </c>
+      <c r="G490" t="n">
+        <v>-0.955</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>496</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.6559</v>
+      </c>
+      <c r="C491" t="n">
+        <v>-0.9718</v>
+      </c>
+      <c r="D491" t="n">
+        <v>-1.5625</v>
+      </c>
+      <c r="E491" t="n">
+        <v>-2.0798</v>
+      </c>
+      <c r="F491" t="n">
+        <v>-0.6149</v>
+      </c>
+      <c r="G491" t="n">
+        <v>-1.3064</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>497</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-1.0665</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-1.1682</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-0.1134</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.4796</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.6187</v>
+      </c>
+      <c r="G492" t="n">
+        <v>-0.2521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1506,6 +1506,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-20</t>
   </si>
 </sst>
 </file>
@@ -13156,6 +13159,29 @@
         <v>-0.2521</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>498</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1.3347</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-0.0757</v>
+      </c>
+      <c r="E493" t="n">
+        <v>-0.4091</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.9709</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2.4645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1509,6 +1509,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-23</t>
   </si>
 </sst>
 </file>
@@ -13182,6 +13185,29 @@
         <v>2.4645</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>499</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.7533</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.7952</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.2739</v>
+      </c>
+      <c r="F494" t="n">
+        <v>1.1218</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.4009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1512,6 +1512,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-27</t>
   </si>
 </sst>
 </file>
@@ -13208,6 +13211,29 @@
         <v>0.4009</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>500</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.5038</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.2336</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-0.3005</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1.6046</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="G495" t="n">
+        <v>-0.3993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1515,6 +1515,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-30</t>
   </si>
 </sst>
 </file>
@@ -13234,6 +13237,29 @@
         <v>-0.3993</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>501</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-1.0025</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>-0.4368</v>
+      </c>
+      <c r="F496" t="n">
+        <v>-1.5708</v>
+      </c>
+      <c r="G496" t="n">
+        <v>-1.4184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1518,6 +1518,18 @@
   </si>
   <si>
     <t xml:space="preserve">2019-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-07</t>
   </si>
 </sst>
 </file>
@@ -13260,6 +13272,98 @@
         <v>-1.4184</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>502</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.557</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2.3655</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2.6752</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.5426</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2.909</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>503</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.4073</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-2.2202</v>
+      </c>
+      <c r="D498" t="n">
+        <v>-1.6881</v>
+      </c>
+      <c r="E498" t="n">
+        <v>-2.8254</v>
+      </c>
+      <c r="F498" t="n">
+        <v>-2.127</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>504</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.3068</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-1.1121</v>
+      </c>
+      <c r="D499" t="n">
+        <v>-0.8585</v>
+      </c>
+      <c r="E499" t="n">
+        <v>-1.7307</v>
+      </c>
+      <c r="F499" t="n">
+        <v>-0.6163</v>
+      </c>
+      <c r="G499" t="n">
+        <v>-0.7295</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>505</v>
+      </c>
+      <c r="B500" t="n">
+        <v>2.5641</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.9367</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2.5713</v>
+      </c>
+      <c r="F500" t="n">
+        <v>-1.2076</v>
+      </c>
+      <c r="G500" t="n">
+        <v>3.1231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1530,6 +1530,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-08</t>
   </si>
 </sst>
 </file>
@@ -13364,6 +13367,29 @@
         <v>3.1231</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>506</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="D501" t="n">
+        <v>-1.9751</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.7212</v>
+      </c>
+      <c r="F501" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.6829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="545">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1533,6 +1533,120 @@
   </si>
   <si>
     <t xml:space="preserve">2020-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-02</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2018,7 @@
         <v>1.0318</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0473</v>
       </c>
       <c r="F2" t="n">
         <v>1.9471</v>
@@ -1918,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.089</v>
+        <v>1.0891</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -1927,7 +2041,7 @@
         <v>1.72</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-2.1277</v>
       </c>
       <c r="F3" t="n">
         <v>0.4897</v>
@@ -1950,7 +2064,7 @@
         <v>0.1849</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.2802</v>
       </c>
       <c r="F4" t="n">
         <v>1.998</v>
@@ -1973,7 +2087,7 @@
         <v>0.5274</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.6818</v>
       </c>
       <c r="F5" t="n">
         <v>0.1911</v>
@@ -1996,7 +2110,7 @@
         <v>1.128</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0868</v>
       </c>
       <c r="F6" t="n">
         <v>0.1431</v>
@@ -2019,7 +2133,7 @@
         <v>-2.1271</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.692</v>
       </c>
       <c r="F7" t="n">
         <v>-1.1905</v>
@@ -2042,7 +2156,7 @@
         <v>-1.5372</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-1.8771</v>
       </c>
       <c r="F8" t="n">
         <v>-3.2289</v>
@@ -2065,7 +2179,7 @@
         <v>-0.2692</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.4348</v>
       </c>
       <c r="F9" t="n">
         <v>0.0498</v>
@@ -2111,7 +2225,7 @@
         <v>0.1106</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="F11" t="n">
         <v>0.4047</v>
@@ -2134,7 +2248,7 @@
         <v>0.0276</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.785</v>
       </c>
       <c r="F12" t="n">
         <v>0.0504</v>
@@ -2157,7 +2271,7 @@
         <v>-0.2762</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.601</v>
       </c>
       <c r="F13" t="n">
         <v>0.7049</v>
@@ -2180,7 +2294,7 @@
         <v>1.4677</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.9464</v>
       </c>
       <c r="F14" t="n">
         <v>1.55</v>
@@ -2226,7 +2340,7 @@
         <v>0.0548</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-3.2038</v>
       </c>
       <c r="F16" t="n">
         <v>-0.7909</v>
@@ -2249,7 +2363,7 @@
         <v>-1.8356</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.6328</v>
       </c>
       <c r="F17" t="n">
         <v>-0.3488</v>
@@ -2272,7 +2386,7 @@
         <v>-0.0279</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1.3908</v>
       </c>
       <c r="F18" t="n">
         <v>-0.1</v>
@@ -2295,7 +2409,7 @@
         <v>1.3679</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.0027</v>
       </c>
       <c r="F19" t="n">
         <v>0.6006</v>
@@ -2318,7 +2432,7 @@
         <v>-0.8538</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3534</v>
       </c>
       <c r="F20" t="n">
         <v>-0.597</v>
@@ -2341,7 +2455,7 @@
         <v>-2.6111</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-3.081</v>
       </c>
       <c r="F21" t="n">
         <v>-1.6266</v>
@@ -2364,7 +2478,7 @@
         <v>0.7986</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.2725</v>
       </c>
       <c r="F22" t="n">
         <v>2.8746</v>
@@ -2378,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.7539</v>
+        <v>-0.754</v>
       </c>
       <c r="C23" t="n">
         <v>-0.5749</v>
@@ -2387,7 +2501,7 @@
         <v>0.3961</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.2732</v>
       </c>
       <c r="F23" t="n">
         <v>0.6429</v>
@@ -2401,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4143</v>
+        <v>0.4144</v>
       </c>
       <c r="C24" t="n">
         <v>1.1565</v>
@@ -2410,7 +2524,7 @@
         <v>-2.7621</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-2.6484</v>
       </c>
       <c r="F24" t="n">
         <v>-3.7347</v>
@@ -2433,7 +2547,7 @@
         <v>-0.8696</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.2345</v>
       </c>
       <c r="F25" t="n">
         <v>0.7912</v>
@@ -2447,7 +2561,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8119</v>
+        <v>-1.8118</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5316</v>
@@ -2456,7 +2570,7 @@
         <v>0.6725</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.6455</v>
       </c>
       <c r="F26" t="n">
         <v>-0.3292</v>
@@ -2479,7 +2593,7 @@
         <v>7.9872</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.4857</v>
       </c>
       <c r="F27" t="n">
         <v>2.6931</v>
@@ -2502,7 +2616,7 @@
         <v>2.2055</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.5858</v>
       </c>
       <c r="F28" t="n">
         <v>-1.9297</v>
@@ -2525,7 +2639,7 @@
         <v>-0.8947</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.7062</v>
       </c>
       <c r="F29" t="n">
         <v>-2.775</v>
@@ -2548,7 +2662,7 @@
         <v>3.1067</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.7358</v>
       </c>
       <c r="F30" t="n">
         <v>3.944</v>
@@ -2571,7 +2685,7 @@
         <v>1.0559</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.2796</v>
       </c>
       <c r="F31" t="n">
         <v>-1.1483</v>
@@ -2594,7 +2708,7 @@
         <v>-0.3058</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.1685</v>
       </c>
       <c r="F32" t="n">
         <v>3.9899</v>
@@ -2617,7 +2731,7 @@
         <v>-1.5849</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.1396</v>
       </c>
       <c r="F33" t="n">
         <v>1.1656</v>
@@ -2640,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.3979</v>
       </c>
       <c r="F34" t="n">
         <v>2.1123</v>
@@ -2663,7 +2777,7 @@
         <v>-1.9099</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-3.7684</v>
       </c>
       <c r="F35" t="n">
         <v>-1.7866</v>
@@ -2686,7 +2800,7 @@
         <v>2.2586</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.2865</v>
       </c>
       <c r="F36" t="n">
         <v>1.0053</v>
@@ -2709,7 +2823,7 @@
         <v>2.9957</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-2.9524</v>
       </c>
       <c r="F37" t="n">
         <v>-0.0948</v>
@@ -2732,7 +2846,7 @@
         <v>2.81</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>17.7625</v>
       </c>
       <c r="F38" t="n">
         <v>1.518</v>
@@ -2755,7 +2869,7 @@
         <v>0.0479</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3.4167</v>
       </c>
       <c r="F39" t="n">
         <v>0.4673</v>
@@ -2778,7 +2892,7 @@
         <v>0.9346</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.5713</v>
       </c>
       <c r="F40" t="n">
         <v>1.1163</v>
@@ -2801,7 +2915,7 @@
         <v>-0.831</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-2.4197</v>
       </c>
       <c r="F41" t="n">
         <v>-1.5639</v>
@@ -2824,7 +2938,7 @@
         <v>-0.2394</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.3821</v>
       </c>
       <c r="F42" t="n">
         <v>-1.1682</v>
@@ -2847,7 +2961,7 @@
         <v>-0.7679</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.1227</v>
       </c>
       <c r="F43" t="n">
         <v>-1.7494</v>
@@ -2870,7 +2984,7 @@
         <v>-1.7896</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.3788</v>
       </c>
       <c r="F44" t="n">
         <v>-0.4812</v>
@@ -2893,7 +3007,7 @@
         <v>0.1231</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.3026</v>
       </c>
       <c r="F45" t="n">
         <v>0.4836</v>
@@ -2907,7 +3021,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2782</v>
+        <v>0.2781</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -2916,7 +3030,7 @@
         <v>2.9021</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.7235</v>
       </c>
       <c r="F46" t="n">
         <v>0.2887</v>
@@ -2939,7 +3053,7 @@
         <v>-0.717</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-0.2394</v>
       </c>
       <c r="F47" t="n">
         <v>1.7754</v>
@@ -2953,7 +3067,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8923</v>
+        <v>0.8922</v>
       </c>
       <c r="C48" t="n">
         <v>-0.1634</v>
@@ -2962,7 +3076,7 @@
         <v>2.0221</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F48" t="n">
         <v>2.9231</v>
@@ -2976,7 +3090,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0681</v>
+        <v>-0.068</v>
       </c>
       <c r="C49" t="n">
         <v>0.7365</v>
@@ -2985,7 +3099,7 @@
         <v>-1.2978</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.0793</v>
       </c>
       <c r="F49" t="n">
         <v>0.8704</v>
@@ -3008,7 +3122,7 @@
         <v>-0.3825</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-0.1189</v>
       </c>
       <c r="F50" t="n">
         <v>1.0899</v>
@@ -3031,7 +3145,7 @@
         <v>-2.0878</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.3968</v>
       </c>
       <c r="F51" t="n">
         <v>-0.2696</v>
@@ -3054,7 +3168,7 @@
         <v>-0.098</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.6375</v>
       </c>
       <c r="F52" t="n">
         <v>0.4757</v>
@@ -3077,7 +3191,7 @@
         <v>-0.0245</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.5146</v>
       </c>
       <c r="F53" t="n">
         <v>0.5861</v>
@@ -3100,7 +3214,7 @@
         <v>-0.7607</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-0.3545</v>
       </c>
       <c r="F54" t="n">
         <v>-0.5827</v>
@@ -3123,7 +3237,7 @@
         <v>-2.3244</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0791</v>
       </c>
       <c r="F55" t="n">
         <v>-0.6763</v>
@@ -3146,7 +3260,7 @@
         <v>1.7215</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3169,7 +3283,7 @@
         <v>-0.7217</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.1575</v>
       </c>
       <c r="F57" t="n">
         <v>-0.9986</v>
@@ -3192,7 +3306,7 @@
         <v>-1.2785</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-0.6289</v>
       </c>
       <c r="F58" t="n">
         <v>-1.7882</v>
@@ -3215,7 +3329,7 @@
         <v>0.5079</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-0.1582</v>
       </c>
       <c r="F59" t="n">
         <v>-0.2801</v>
@@ -3238,7 +3352,7 @@
         <v>-0.48</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-1.5848</v>
       </c>
       <c r="F60" t="n">
         <v>-0.9831</v>
@@ -3261,7 +3375,7 @@
         <v>0.3808</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3.0596</v>
       </c>
       <c r="F61" t="n">
         <v>0.4728</v>
@@ -3284,7 +3398,7 @@
         <v>-1.6945</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1.4062</v>
       </c>
       <c r="F62" t="n">
         <v>0.4235</v>
@@ -3307,7 +3421,7 @@
         <v>0.2058</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>-3.2357</v>
       </c>
       <c r="F63" t="n">
         <v>-0.3749</v>
@@ -3330,7 +3444,7 @@
         <v>-1.8485</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-2.9459</v>
       </c>
       <c r="F64" t="n">
         <v>-4.9389</v>
@@ -3353,7 +3467,7 @@
         <v>2.0403</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>2.0098</v>
       </c>
       <c r="F65" t="n">
         <v>1.3854</v>
@@ -3376,7 +3490,7 @@
         <v>-1.1515</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-1.0856</v>
       </c>
       <c r="F66" t="n">
         <v>-1.1713</v>
@@ -3399,7 +3513,7 @@
         <v>0.0794</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>-1.0569</v>
       </c>
       <c r="F67" t="n">
         <v>0.0494</v>
@@ -3422,7 +3536,7 @@
         <v>2.6455</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>-0.5752</v>
       </c>
       <c r="F68" t="n">
         <v>1.0859</v>
@@ -3445,7 +3559,7 @@
         <v>-1.6237</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>-0.5372</v>
       </c>
       <c r="F69" t="n">
         <v>-0.7813</v>
@@ -3468,7 +3582,7 @@
         <v>-4.5586</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.9555</v>
       </c>
       <c r="F70" t="n">
         <v>2.7067</v>
@@ -3491,7 +3605,7 @@
         <v>2.0313</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
       <c r="F71" t="n">
         <v>-0.4312</v>
@@ -3514,7 +3628,7 @@
         <v>-1.0492</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-0.9983</v>
       </c>
       <c r="F72" t="n">
         <v>0.9143</v>
@@ -3537,7 +3651,7 @@
         <v>2.4742</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>8.7395</v>
       </c>
       <c r="F73" t="n">
         <v>1.9552</v>
@@ -3560,7 +3674,7 @@
         <v>0.0796</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-2.3184</v>
       </c>
       <c r="F74" t="n">
         <v>0.0468</v>
@@ -3583,7 +3697,7 @@
         <v>1.9618</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1.068</v>
       </c>
       <c r="F75" t="n">
         <v>-1.1688</v>
@@ -3606,7 +3720,7 @@
         <v>-1.3001</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>-0.8219</v>
       </c>
       <c r="F76" t="n">
         <v>-0.3311</v>
@@ -3629,7 +3743,7 @@
         <v>0.1317</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>-1.0655</v>
       </c>
       <c r="F77" t="n">
         <v>0.9492</v>
@@ -3652,7 +3766,7 @@
         <v>-0.2631</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>-1.3562</v>
       </c>
       <c r="F78" t="n">
         <v>0.094</v>
@@ -3675,7 +3789,7 @@
         <v>-0.7914</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-1.2131</v>
       </c>
       <c r="F79" t="n">
         <v>-0.8924</v>
@@ -3698,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2.7835</v>
       </c>
       <c r="F80" t="n">
         <v>2.0379</v>
@@ -3721,7 +3835,7 @@
         <v>1.6751</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>-0.2788</v>
       </c>
       <c r="F81" t="n">
         <v>0.9754</v>
@@ -3744,7 +3858,7 @@
         <v>0.34</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-1.278</v>
       </c>
       <c r="F82" t="n">
         <v>1.7019</v>
@@ -3767,7 +3881,7 @@
         <v>6.8543</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1.0113</v>
       </c>
       <c r="F83" t="n">
         <v>6.9652</v>
@@ -3790,7 +3904,7 @@
         <v>4.5122</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1.2815</v>
       </c>
       <c r="F84" t="n">
         <v>-0.2537</v>
@@ -3813,7 +3927,7 @@
         <v>-3.4539</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>-1.3049</v>
       </c>
       <c r="F85" t="n">
         <v>1.2717</v>
@@ -3836,7 +3950,7 @@
         <v>1.4503</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>3.6458</v>
       </c>
       <c r="F86" t="n">
         <v>2.2604</v>
@@ -3850,7 +3964,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1756</v>
+        <v>1.1757</v>
       </c>
       <c r="C87" t="n">
         <v>0.8376</v>
@@ -3859,7 +3973,7 @@
         <v>0.7148</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.8891</v>
       </c>
       <c r="F87" t="n">
         <v>-0.4503</v>
@@ -3882,7 +3996,7 @@
         <v>1.2538</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>-4.6743</v>
       </c>
       <c r="F88" t="n">
         <v>0.9046</v>
@@ -3905,7 +4019,7 @@
         <v>-2.5701</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1.5675</v>
       </c>
       <c r="F89" t="n">
         <v>0.652</v>
@@ -3928,7 +4042,7 @@
         <v>1.9664</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>-0.9893</v>
       </c>
       <c r="F90" t="n">
         <v>-0.7692</v>
@@ -3951,7 +4065,7 @@
         <v>-0.4233</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-1.9984</v>
       </c>
       <c r="F91" t="n">
         <v>-0.7344</v>
@@ -3974,7 +4088,7 @@
         <v>1.5588</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2.3654</v>
       </c>
       <c r="F92" t="n">
         <v>-0.2877</v>
@@ -3997,7 +4111,7 @@
         <v>-1.6512</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1.0359</v>
       </c>
       <c r="F93" t="n">
         <v>-0.7832</v>
@@ -4011,7 +4125,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1797</v>
+        <v>1.1798</v>
       </c>
       <c r="C94" t="n">
         <v>-0.1849</v>
@@ -4020,7 +4134,7 @@
         <v>2.8612</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>-2.7997</v>
       </c>
       <c r="F94" t="n">
         <v>-0.3739</v>
@@ -4043,7 +4157,7 @@
         <v>-0.5747</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>-0.4462</v>
       </c>
       <c r="F95" t="n">
         <v>-0.4587</v>
@@ -4066,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0.652</v>
       </c>
       <c r="F96" t="n">
         <v>0.796</v>
@@ -4089,7 +4203,7 @@
         <v>0.3931</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-2.1739</v>
       </c>
       <c r="F97" t="n">
         <v>2.0366</v>
@@ -4112,7 +4226,7 @@
         <v>-0.5067</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-20.0671</v>
       </c>
       <c r="F98" t="n">
         <v>-0.9369</v>
@@ -4135,7 +4249,7 @@
         <v>-0.2315</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.3147</v>
       </c>
       <c r="F99" t="n">
         <v>-0.7813</v>
@@ -4158,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>3.3047</v>
       </c>
       <c r="F100" t="n">
         <v>1.5334</v>
@@ -4181,7 +4295,7 @@
         <v>-0.9745</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-3.0168</v>
       </c>
       <c r="F101" t="n">
         <v>-0.7755</v>
@@ -4204,7 +4318,7 @@
         <v>1.8041</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2.0668</v>
       </c>
       <c r="F102" t="n">
         <v>0.6993</v>
@@ -4250,7 +4364,7 @@
         <v>-1.4486</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.3886</v>
       </c>
       <c r="F104" t="n">
         <v>0.9248</v>
@@ -4273,7 +4387,7 @@
         <v>-0.2526</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>-1.9967</v>
       </c>
       <c r="F105" t="n">
         <v>-0.6375</v>
@@ -4287,7 +4401,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2017</v>
+        <v>-0.2018</v>
       </c>
       <c r="C106" t="n">
         <v>-0.8364</v>
@@ -4296,7 +4410,7 @@
         <v>-0.5526</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>-1.0395</v>
       </c>
       <c r="F106" t="n">
         <v>-1.684</v>
@@ -4310,7 +4424,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1456</v>
+        <v>1.1455</v>
       </c>
       <c r="C107" t="n">
         <v>2.1556</v>
@@ -4319,7 +4433,7 @@
         <v>0.3705</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>-0.5462</v>
       </c>
       <c r="F107" t="n">
         <v>0.8972</v>
@@ -4342,7 +4456,7 @@
         <v>-0.4844</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2.2391</v>
       </c>
       <c r="F108" t="n">
         <v>0.8893</v>
@@ -4388,7 +4502,7 @@
         <v>0.4872</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.0455</v>
       </c>
       <c r="F110" t="n">
         <v>12.1718</v>
@@ -4411,7 +4525,7 @@
         <v>-1.2237</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>-2.7738</v>
       </c>
       <c r="F111" t="n">
         <v>0.8156</v>
@@ -4425,7 +4539,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7333</v>
+        <v>-0.7334</v>
       </c>
       <c r="C112" t="n">
         <v>-2.112</v>
@@ -4434,7 +4548,7 @@
         <v>-0.9818</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-0.9579</v>
       </c>
       <c r="F112" t="n">
         <v>-0.1407</v>
@@ -4457,7 +4571,7 @@
         <v>-2.5732</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.9462</v>
       </c>
       <c r="F113" t="n">
         <v>1.1272</v>
@@ -4480,7 +4594,7 @@
         <v>-0.0727</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>5.603</v>
       </c>
       <c r="F114" t="n">
         <v>1.2887</v>
@@ -4503,7 +4617,7 @@
         <v>-3.4433</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>-2.5444</v>
       </c>
       <c r="F115" t="n">
         <v>0.8597</v>
@@ -4526,7 +4640,7 @@
         <v>-1.3059</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.6679</v>
       </c>
       <c r="F116" t="n">
         <v>0.1023</v>
@@ -4549,7 +4663,7 @@
         <v>-2.0356</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.9248</v>
       </c>
       <c r="F117" t="n">
         <v>-0.8856</v>
@@ -4563,7 +4677,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.801</v>
+        <v>-0.8011</v>
       </c>
       <c r="C118" t="n">
         <v>-2.9224</v>
@@ -4572,7 +4686,7 @@
         <v>-0.2597</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-3.6853</v>
       </c>
       <c r="F118" t="n">
         <v>-0.6529</v>
@@ -4595,7 +4709,7 @@
         <v>0.026</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1.8201</v>
       </c>
       <c r="F119" t="n">
         <v>0.9685</v>
@@ -4618,7 +4732,7 @@
         <v>-2.6295</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>-1.8485</v>
       </c>
       <c r="F120" t="n">
         <v>-2.2953</v>
@@ -4641,7 +4755,7 @@
         <v>2.1123</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1.904</v>
       </c>
       <c r="F121" t="n">
         <v>1.9635</v>
@@ -4655,7 +4769,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.801</v>
+        <v>-0.8011</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1752</v>
@@ -4664,7 +4778,7 @@
         <v>-1.8068</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>-0.528</v>
       </c>
       <c r="F122" t="n">
         <v>-0.3095</v>
@@ -4687,7 +4801,7 @@
         <v>0.5867</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>2.3377</v>
       </c>
       <c r="F123" t="n">
         <v>0.207</v>
@@ -4710,7 +4824,7 @@
         <v>-1.7232</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1.3466</v>
       </c>
       <c r="F124" t="n">
         <v>0.6885</v>
@@ -4733,7 +4847,7 @@
         <v>2.1041</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1.3287</v>
       </c>
       <c r="F125" t="n">
         <v>0.6154</v>
@@ -4756,7 +4870,7 @@
         <v>-2.4042</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4779,7 +4893,7 @@
         <v>1.2453</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.3899</v>
       </c>
       <c r="F127" t="n">
         <v>0.068</v>
@@ -4802,7 +4916,7 @@
         <v>0.9626</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>3.2524</v>
       </c>
       <c r="F128" t="n">
         <v>0.1698</v>
@@ -4825,7 +4939,7 @@
         <v>-1.3771</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>-0.7522</v>
       </c>
       <c r="F129" t="n">
         <v>-2.8136</v>
@@ -4848,7 +4962,7 @@
         <v>1.3695</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2.558</v>
       </c>
       <c r="F130" t="n">
         <v>1.9533</v>
@@ -4871,7 +4985,7 @@
         <v>-0.2649</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>0.2771</v>
       </c>
       <c r="F131" t="n">
         <v>-1.2316</v>
@@ -4894,7 +5008,7 @@
         <v>-0.2656</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.4146</v>
       </c>
       <c r="F132" t="n">
         <v>1.1777</v>
@@ -4917,7 +5031,7 @@
         <v>2.3702</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2.2936</v>
       </c>
       <c r="F133" t="n">
         <v>2.0199</v>
@@ -4940,7 +5054,7 @@
         <v>0.5983</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1.1211</v>
       </c>
       <c r="F134" t="n">
         <v>-0.1678</v>
@@ -4963,7 +5077,7 @@
         <v>-0.4138</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>-0.2217</v>
       </c>
       <c r="F135" t="n">
         <v>1.7479</v>
@@ -4986,7 +5100,7 @@
         <v>-0.1298</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1.0222</v>
       </c>
       <c r="F136" t="n">
         <v>0.0991</v>
@@ -5009,7 +5123,7 @@
         <v>0.13</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>-1.1879</v>
       </c>
       <c r="F137" t="n">
         <v>-0.5281</v>
@@ -5032,7 +5146,7 @@
         <v>2.0254</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>0.4898</v>
       </c>
       <c r="F138" t="n">
         <v>0.8626</v>
@@ -5055,7 +5169,7 @@
         <v>0.3309</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.1329</v>
       </c>
       <c r="F139" t="n">
         <v>0.5921</v>
@@ -5078,7 +5192,7 @@
         <v>3.2471</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1.2389</v>
       </c>
       <c r="F140" t="n">
         <v>1.4389</v>
@@ -5092,7 +5206,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6493</v>
+        <v>0.6494</v>
       </c>
       <c r="C141" t="n">
         <v>0.267</v>
@@ -5101,7 +5215,7 @@
         <v>1.1056</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>-1.2675</v>
       </c>
       <c r="F141" t="n">
         <v>-0.3546</v>
@@ -5124,7 +5238,7 @@
         <v>0.3402</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.6197</v>
       </c>
       <c r="F142" t="n">
         <v>-0.3235</v>
@@ -5147,7 +5261,7 @@
         <v>1.5742</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>-3.9155</v>
       </c>
       <c r="F143" t="n">
         <v>-1.3307</v>
@@ -5170,7 +5284,7 @@
         <v>-1.3352</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1.1447</v>
       </c>
       <c r="F144" t="n">
         <v>1.7105</v>
@@ -5193,7 +5307,7 @@
         <v>-1.6433</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>-0.2716</v>
       </c>
       <c r="F145" t="n">
         <v>0.7439</v>
@@ -5216,7 +5330,7 @@
         <v>-1.8919</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>-0.6355</v>
       </c>
       <c r="F146" t="n">
         <v>0.931</v>
@@ -5239,7 +5353,7 @@
         <v>2.855</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>-2.2841</v>
       </c>
       <c r="F147" t="n">
         <v>0.6679</v>
@@ -5262,7 +5376,7 @@
         <v>1.0226</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>0.9818</v>
       </c>
       <c r="F148" t="n">
         <v>-0.3476</v>
@@ -5285,7 +5399,7 @@
         <v>-2.8682</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-1.8056</v>
       </c>
       <c r="F149" t="n">
         <v>-2.0926</v>
@@ -5308,7 +5422,7 @@
         <v>4.3176</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>-1.4616</v>
       </c>
       <c r="F150" t="n">
         <v>-1.2306</v>
@@ -5331,7 +5445,7 @@
         <v>-3.8773</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1.2919</v>
       </c>
       <c r="F151" t="n">
         <v>0.0328</v>
@@ -5354,7 +5468,7 @@
         <v>-1.757</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2.5508</v>
       </c>
       <c r="F152" t="n">
         <v>5.3753</v>
@@ -5377,7 +5491,7 @@
         <v>-1.4358</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>-1.7964</v>
       </c>
       <c r="F153" t="n">
         <v>0.6221</v>
@@ -5400,7 +5514,7 @@
         <v>-3.8334</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>-2.0638</v>
       </c>
       <c r="F154" t="n">
         <v>-3.864</v>
@@ -5423,7 +5537,7 @@
         <v>1.1161</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>0.7663</v>
       </c>
       <c r="F155" t="n">
         <v>2.9903</v>
@@ -5446,7 +5560,7 @@
         <v>0.5256</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>0.0475</v>
       </c>
       <c r="F156" t="n">
         <v>-1.561</v>
@@ -5469,7 +5583,7 @@
         <v>1.6993</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>-0.6651</v>
       </c>
       <c r="F157" t="n">
         <v>-2.8227</v>
@@ -5492,7 +5606,7 @@
         <v>0.7712</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>-0.5739</v>
       </c>
       <c r="F158" t="n">
         <v>0.0326</v>
@@ -5506,7 +5620,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.5066</v>
+        <v>-0.5067</v>
       </c>
       <c r="C159" t="n">
         <v>1.9215</v>
@@ -5515,7 +5629,7 @@
         <v>-0.4337</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.3468</v>
       </c>
       <c r="F159" t="n">
         <v>7.4715</v>
@@ -5538,7 +5652,7 @@
         <v>0.4612</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1.4713</v>
       </c>
       <c r="F160" t="n">
         <v>1.0018</v>
@@ -5561,7 +5675,7 @@
         <v>-1.1222</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>-0.2806</v>
       </c>
       <c r="F161" t="n">
         <v>-0.2405</v>
@@ -5584,7 +5698,7 @@
         <v>2.4503</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1.7824</v>
       </c>
       <c r="F162" t="n">
         <v>1.2353</v>
@@ -5607,7 +5721,7 @@
         <v>2.2659</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>0.0461</v>
       </c>
       <c r="F163" t="n">
         <v>-0.2976</v>
@@ -5630,7 +5744,7 @@
         <v>-0.0492</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1.0594</v>
       </c>
       <c r="F164" t="n">
         <v>-0.6866</v>
@@ -5653,7 +5767,7 @@
         <v>-0.2463</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1.2762</v>
       </c>
       <c r="F165" t="n">
         <v>0.4509</v>
@@ -5699,7 +5813,7 @@
         <v>-1.0526</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>-2.4752</v>
       </c>
       <c r="F167" t="n">
         <v>2.1915</v>
@@ -5722,7 +5836,7 @@
         <v>-1.6211</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>0.323</v>
       </c>
       <c r="F168" t="n">
         <v>-0.8813</v>
@@ -5745,7 +5859,7 @@
         <v>-0.8496</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>-2.3459</v>
       </c>
       <c r="F169" t="n">
         <v>-2.1043</v>
@@ -5768,7 +5882,7 @@
         <v>-0.3635</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>-0.6123</v>
       </c>
       <c r="F170" t="n">
         <v>0.2119</v>
@@ -5782,7 +5896,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1279</v>
+        <v>-0.128</v>
       </c>
       <c r="C171" t="n">
         <v>-4.1949</v>
@@ -5791,7 +5905,7 @@
         <v>-2.111</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>0.8057</v>
       </c>
       <c r="F171" t="n">
         <v>0.4834</v>
@@ -5814,7 +5928,7 @@
         <v>1.0916</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>-1.8806</v>
       </c>
       <c r="F172" t="n">
         <v>-1.8641</v>
@@ -5837,7 +5951,7 @@
         <v>-1.3958</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1.5812</v>
       </c>
       <c r="F173" t="n">
         <v>0.4902</v>
@@ -5860,7 +5974,7 @@
         <v>0.2671</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>2.3585</v>
       </c>
       <c r="F174" t="n">
         <v>0.6098</v>
@@ -5883,7 +5997,7 @@
         <v>0.4795</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>-0.553</v>
       </c>
       <c r="F175" t="n">
         <v>-0.1515</v>
@@ -5906,7 +6020,7 @@
         <v>1.5376</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.0658</v>
       </c>
       <c r="F176" t="n">
         <v>0.0304</v>
@@ -5929,7 +6043,7 @@
         <v>-1.2272</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>-2.5676</v>
       </c>
       <c r="F177" t="n">
         <v>-1.9417</v>
@@ -5943,7 +6057,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1275</v>
+        <v>0.1276</v>
       </c>
       <c r="C178" t="n">
         <v>3.5535</v>
@@ -5952,7 +6066,7 @@
         <v>1.2688</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>-1.6941</v>
       </c>
       <c r="F178" t="n">
         <v>-2.4134</v>
@@ -5975,7 +6089,7 @@
         <v>1.8272</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>-2.6328</v>
       </c>
       <c r="F179" t="n">
         <v>0.0951</v>
@@ -5989,7 +6103,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="n">
-        <v>1.3898</v>
+        <v>1.3897</v>
       </c>
       <c r="C180" t="n">
         <v>4.7337</v>
@@ -5998,7 +6112,7 @@
         <v>1.7175</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>3.0973</v>
       </c>
       <c r="F180" t="n">
         <v>0.0633</v>
@@ -6021,7 +6135,7 @@
         <v>0.378</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>0.1431</v>
       </c>
       <c r="F181" t="n">
         <v>1.2979</v>
@@ -6044,7 +6158,7 @@
         <v>-2.4102</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>-0.9524</v>
       </c>
       <c r="F182" t="n">
         <v>-0.875</v>
@@ -6058,7 +6172,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9277</v>
+        <v>-0.9276</v>
       </c>
       <c r="C183" t="n">
         <v>2.1942</v>
@@ -6067,7 +6181,7 @@
         <v>-1.1577</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2.2596</v>
       </c>
       <c r="F183" t="n">
         <v>1.0719</v>
@@ -6090,7 +6204,7 @@
         <v>0.1301</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>0.7992</v>
       </c>
       <c r="F184" t="n">
         <v>-1.3412</v>
@@ -6113,7 +6227,7 @@
         <v>3.7172</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>-4.6175</v>
       </c>
       <c r="F185" t="n">
         <v>-0.411</v>
@@ -6136,7 +6250,7 @@
         <v>0.1754</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>-1.2225</v>
       </c>
       <c r="F186" t="n">
         <v>-0.6667</v>
@@ -6159,7 +6273,7 @@
         <v>-2.4268</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1.5347</v>
       </c>
       <c r="F187" t="n">
         <v>0.7351</v>
@@ -6182,7 +6296,7 @@
         <v>0.2051</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>-0.4876</v>
       </c>
       <c r="F188" t="n">
         <v>-0.8249</v>
@@ -6205,7 +6319,7 @@
         <v>1.1515</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>-1.0779</v>
       </c>
       <c r="F189" t="n">
         <v>-0.9277</v>
@@ -6228,7 +6342,7 @@
         <v>-1.2649</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>-2.3081</v>
       </c>
       <c r="F190" t="n">
         <v>-4.6174</v>
@@ -6251,7 +6365,7 @@
         <v>-2.1522</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>0.0608</v>
       </c>
       <c r="F191" t="n">
         <v>0.6432</v>
@@ -6274,7 +6388,7 @@
         <v>-3.2207</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-1.1958</v>
       </c>
       <c r="F192" t="n">
         <v>-8.1736</v>
@@ -6297,7 +6411,7 @@
         <v>-0.974</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>-1.5385</v>
       </c>
       <c r="F193" t="n">
         <v>-0.989</v>
@@ -6320,7 +6434,7 @@
         <v>-2.459</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>-5.5833</v>
       </c>
       <c r="F194" t="n">
         <v>-2.5897</v>
@@ -6343,7 +6457,7 @@
         <v>-3.2213</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>-1.3239</v>
       </c>
       <c r="F195" t="n">
         <v>0.6457</v>
@@ -6366,7 +6480,7 @@
         <v>0.6946</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>3.1082</v>
       </c>
       <c r="F196" t="n">
         <v>3.9245</v>
@@ -6389,7 +6503,7 @@
         <v>1.0635</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>-1.5615</v>
       </c>
       <c r="F197" t="n">
         <v>-2.5418</v>
@@ -6412,7 +6526,7 @@
         <v>4.3515</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>-2.115</v>
       </c>
       <c r="F198" t="n">
         <v>4.62</v>
@@ -6435,7 +6549,7 @@
         <v>-0.2453</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>0.5627</v>
       </c>
       <c r="F199" t="n">
         <v>-2.5285</v>
@@ -6458,7 +6572,7 @@
         <v>-1.0656</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>4.7001</v>
       </c>
       <c r="F200" t="n">
         <v>3.3248</v>
@@ -6481,7 +6595,7 @@
         <v>-3.1483</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>-1.4109</v>
       </c>
       <c r="F201" t="n">
         <v>-0.6011</v>
@@ -6504,7 +6618,7 @@
         <v>0.5988</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>-1.778</v>
       </c>
       <c r="F202" t="n">
         <v>0.1067</v>
@@ -6527,7 +6641,7 @@
         <v>-2.6644</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>-4.4592</v>
       </c>
       <c r="F203" t="n">
         <v>-2.6652</v>
@@ -6550,7 +6664,7 @@
         <v>-0.4077</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>-5.0601</v>
       </c>
       <c r="F204" t="n">
         <v>-0.4746</v>
@@ -6573,7 +6687,7 @@
         <v>-0.6725</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>-3.5775</v>
       </c>
       <c r="F205" t="n">
         <v>-0.9538</v>
@@ -6596,7 +6710,7 @@
         <v>-4.0919</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>2.0697</v>
       </c>
       <c r="F206" t="n">
         <v>0.1481</v>
@@ -6619,7 +6733,7 @@
         <v>4.1743</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>5.6874</v>
       </c>
       <c r="F207" t="n">
         <v>1.3314</v>
@@ -6642,7 +6756,7 @@
         <v>1.1786</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>6.0365</v>
       </c>
       <c r="F208" t="n">
         <v>0.3285</v>
@@ -6665,7 +6779,7 @@
         <v>0.728</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>-0.4413</v>
       </c>
       <c r="F209" t="n">
         <v>1.7461</v>
@@ -6679,7 +6793,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6282</v>
+        <v>-0.6281</v>
       </c>
       <c r="C210" t="n">
         <v>4.907</v>
@@ -6688,7 +6802,7 @@
         <v>0.7227</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>5.0532</v>
       </c>
       <c r="F210" t="n">
         <v>-0.5363</v>
@@ -6711,7 +6825,7 @@
         <v>1.6935</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>2.5316</v>
       </c>
       <c r="F211" t="n">
         <v>1.1862</v>
@@ -6734,7 +6848,7 @@
         <v>-1.2137</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>-0.0617</v>
       </c>
       <c r="F212" t="n">
         <v>0.3908</v>
@@ -6757,7 +6871,7 @@
         <v>0.8</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>0.1647</v>
       </c>
       <c r="F213" t="n">
         <v>-1.0616</v>
@@ -6780,7 +6894,7 @@
         <v>5.1304</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>2.3638</v>
       </c>
       <c r="F214" t="n">
         <v>-1.681</v>
@@ -6803,7 +6917,7 @@
         <v>-2.4535</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>0.6526</v>
       </c>
       <c r="F215" t="n">
         <v>2.3645</v>
@@ -6817,7 +6931,7 @@
         <v>221</v>
       </c>
       <c r="B216" t="n">
-        <v>1.1467</v>
+        <v>1.1466</v>
       </c>
       <c r="C216" t="n">
         <v>0.488</v>
@@ -6826,7 +6940,7 @@
         <v>-2.3217</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>-1.0075</v>
       </c>
       <c r="F216" t="n">
         <v>2.0611</v>
@@ -6849,7 +6963,7 @@
         <v>-0.7074</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>-3.3454</v>
       </c>
       <c r="F217" t="n">
         <v>-1.915</v>
@@ -6872,7 +6986,7 @@
         <v>1.0544</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>-2.5229</v>
       </c>
       <c r="F218" t="n">
         <v>-0.852</v>
@@ -6895,7 +7009,7 @@
         <v>-0.0282</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>-1.1765</v>
       </c>
       <c r="F219" t="n">
         <v>-4.5471</v>
@@ -6909,7 +7023,7 @@
         <v>225</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.3537</v>
+        <v>-2.3536</v>
       </c>
       <c r="C220" t="n">
         <v>-3.4686</v>
@@ -6918,7 +7032,7 @@
         <v>-2.3413</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>-2.1212</v>
       </c>
       <c r="F220" t="n">
         <v>-3.6384</v>
@@ -6941,7 +7055,7 @@
         <v>1.2709</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1.5259</v>
       </c>
       <c r="F221" t="n">
         <v>2.608</v>
@@ -6964,7 +7078,7 @@
         <v>-1.198</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1.0673</v>
       </c>
       <c r="F222" t="n">
         <v>-1.6313</v>
@@ -6987,7 +7101,7 @@
         <v>-2.9446</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>4.5259</v>
       </c>
       <c r="F223" t="n">
         <v>-5.5148</v>
@@ -7010,7 +7124,7 @@
         <v>0.4164</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>-4.1237</v>
       </c>
       <c r="F224" t="n">
         <v>-1.3469</v>
@@ -7033,7 +7147,7 @@
         <v>-0.2962</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>2.9032</v>
       </c>
       <c r="F225" t="n">
         <v>1.4894</v>
@@ -7056,7 +7170,7 @@
         <v>-1.5449</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>3.1557</v>
       </c>
       <c r="F226" t="n">
         <v>2.7314</v>
@@ -7079,7 +7193,7 @@
         <v>3.9529</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1.7018</v>
       </c>
       <c r="F227" t="n">
         <v>-5.5556</v>
@@ -7102,7 +7216,7 @@
         <v>-2.2351</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>-2.0319</v>
       </c>
       <c r="F228" t="n">
         <v>-2.0168</v>
@@ -7125,7 +7239,7 @@
         <v>-0.2969</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>0.8743</v>
       </c>
       <c r="F229" t="n">
         <v>-2.6587</v>
@@ -7148,7 +7262,7 @@
         <v>0.5063</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1.2901</v>
       </c>
       <c r="F230" t="n">
         <v>4.0529</v>
@@ -7162,7 +7276,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>1.0474</v>
+        <v>1.0475</v>
       </c>
       <c r="C231" t="n">
         <v>-0.2278</v>
@@ -7171,7 +7285,7 @@
         <v>-2.163</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>-0.199</v>
       </c>
       <c r="F231" t="n">
         <v>-2.4979</v>
@@ -7194,7 +7308,7 @@
         <v>4.6941</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>0.5982</v>
       </c>
       <c r="F232" t="n">
         <v>3.2566</v>
@@ -7217,7 +7331,7 @@
         <v>-3.4423</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>0.3964</v>
       </c>
       <c r="F233" t="n">
         <v>0.6308</v>
@@ -7263,7 +7377,7 @@
         <v>-5.094</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>-0.7404</v>
       </c>
       <c r="F235" t="n">
         <v>-0.6115</v>
@@ -7286,7 +7400,7 @@
         <v>0.639</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>-0.7658</v>
       </c>
       <c r="F236" t="n">
         <v>0.5742</v>
@@ -7309,7 +7423,7 @@
         <v>-2.9841</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>2.726</v>
       </c>
       <c r="F237" t="n">
         <v>2.2023</v>
@@ -7332,7 +7446,7 @@
         <v>1.6361</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>-0.0976</v>
       </c>
       <c r="F238" t="n">
         <v>-0.439</v>
@@ -7355,7 +7469,7 @@
         <v>0.0966</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>3.1738</v>
       </c>
       <c r="F239" t="n">
         <v>2.1643</v>
@@ -7378,7 +7492,7 @@
         <v>-0.579</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1.0412</v>
       </c>
       <c r="F240" t="n">
         <v>-2.1969</v>
@@ -7401,7 +7515,7 @@
         <v>-0.9382</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>0.0937</v>
       </c>
       <c r="F241" t="n">
         <v>0.3209</v>
@@ -7415,7 +7529,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1208</v>
+        <v>-0.1209</v>
       </c>
       <c r="C242" t="n">
         <v>-1.9196</v>
@@ -7424,7 +7538,7 @@
         <v>-2.5474</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>-0.1404</v>
       </c>
       <c r="F242" t="n">
         <v>1.9592</v>
@@ -7447,7 +7561,7 @@
         <v>0.5027</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>-2.671</v>
       </c>
       <c r="F243" t="n">
         <v>0.4314</v>
@@ -7470,7 +7584,7 @@
         <v>0.0334</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>2.0703</v>
       </c>
       <c r="F244" t="n">
         <v>0.7809</v>
@@ -7493,7 +7607,7 @@
         <v>-1.8333</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>0.3774</v>
       </c>
       <c r="F245" t="n">
         <v>-7.1678</v>
@@ -7516,7 +7630,7 @@
         <v>0.9508</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>0.6109</v>
       </c>
       <c r="F246" t="n">
         <v>2.0868</v>
@@ -7539,7 +7653,7 @@
         <v>-4.8772</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>-2.0084</v>
       </c>
       <c r="F247" t="n">
         <v>-1.1856</v>
@@ -7562,7 +7676,7 @@
         <v>3.6422</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1.7636</v>
       </c>
       <c r="F248" t="n">
         <v>0.662</v>
@@ -7585,7 +7699,7 @@
         <v>1.6718</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>-4.0281</v>
       </c>
       <c r="F249" t="n">
         <v>5.0555</v>
@@ -7608,7 +7722,7 @@
         <v>-1.5772</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>-0.1464</v>
       </c>
       <c r="F250" t="n">
         <v>-3.3646</v>
@@ -7631,7 +7745,7 @@
         <v>3.9891</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>4.2033</v>
       </c>
       <c r="F251" t="n">
         <v>5.5466</v>
@@ -7654,7 +7768,7 @@
         <v>2.9836</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>2.6735</v>
       </c>
       <c r="F252" t="n">
         <v>1.7645</v>
@@ -7677,7 +7791,7 @@
         <v>1.56</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>0.5482</v>
       </c>
       <c r="F253" t="n">
         <v>4.0709</v>
@@ -7700,7 +7814,7 @@
         <v>2.3197</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1.045</v>
       </c>
       <c r="F254" t="n">
         <v>0.2535</v>
@@ -7723,7 +7837,7 @@
         <v>-0.3064</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>-2.473</v>
       </c>
       <c r="F255" t="n">
         <v>0.289</v>
@@ -7737,7 +7851,7 @@
         <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.9721</v>
+        <v>-0.972</v>
       </c>
       <c r="C256" t="n">
         <v>1.409</v>
@@ -7746,7 +7860,7 @@
         <v>-1.6595</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>-1.1987</v>
       </c>
       <c r="F256" t="n">
         <v>-0.7205</v>
@@ -7760,7 +7874,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.6565</v>
+        <v>-1.6564</v>
       </c>
       <c r="C257" t="n">
         <v>0.3474</v>
@@ -7769,7 +7883,7 @@
         <v>-1.3125</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-2.7998</v>
       </c>
       <c r="F257" t="n">
         <v>-1.8142</v>
@@ -7792,7 +7906,7 @@
         <v>-0.6017</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>-0.7681</v>
       </c>
       <c r="F258" t="n">
         <v>1.2195</v>
@@ -7815,7 +7929,7 @@
         <v>2.1026</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>0.3387</v>
       </c>
       <c r="F259" t="n">
         <v>2.7382</v>
@@ -7829,7 +7943,7 @@
         <v>265</v>
       </c>
       <c r="B260" t="n">
-        <v>0.122</v>
+        <v>0.1219</v>
       </c>
       <c r="C260" t="n">
         <v>-1.0485</v>
@@ -7838,7 +7952,7 @@
         <v>0.0936</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1.1572</v>
       </c>
       <c r="F260" t="n">
         <v>-0.5686</v>
@@ -7861,7 +7975,7 @@
         <v>1.5274</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>-2.9075</v>
       </c>
       <c r="F261" t="n">
         <v>-0.1072</v>
@@ -7884,7 +7998,7 @@
         <v>2.2106</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>1.5709</v>
       </c>
       <c r="F262" t="n">
         <v>2.2183</v>
@@ -7898,7 +8012,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="n">
-        <v>1.4925</v>
+        <v>1.4926</v>
       </c>
       <c r="C263" t="n">
         <v>-2.3256</v>
@@ -7907,7 +8021,7 @@
         <v>-2.4332</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>-3.4123</v>
       </c>
       <c r="F263" t="n">
         <v>1.9951</v>
@@ -7930,7 +8044,7 @@
         <v>-1.7549</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>-1.4211</v>
       </c>
       <c r="F264" t="n">
         <v>-0.755</v>
@@ -7953,7 +8067,7 @@
         <v>1.2535</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>-1.9289</v>
       </c>
       <c r="F265" t="n">
         <v>-0.7953</v>
@@ -7976,7 +8090,7 @@
         <v>2.6617</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>-1.5942</v>
       </c>
       <c r="F266" t="n">
         <v>1.2548</v>
@@ -7999,7 +8113,7 @@
         <v>-2.2309</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>2.4826</v>
       </c>
       <c r="F267" t="n">
         <v>-0.1721</v>
@@ -8013,7 +8127,7 @@
         <v>273</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8945</v>
+        <v>0.8944</v>
       </c>
       <c r="C268" t="n">
         <v>-0.0816</v>
@@ -8022,7 +8136,7 @@
         <v>0.7709</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>-1.4576</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -8045,7 +8159,7 @@
         <v>-0.3672</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>-0.5417</v>
       </c>
       <c r="F269" t="n">
         <v>-2.5172</v>
@@ -8068,7 +8182,7 @@
         <v>-6.3575</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>-0.796</v>
       </c>
       <c r="F270" t="n">
         <v>-0.6721</v>
@@ -8091,7 +8205,7 @@
         <v>-2.7878</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1.2247</v>
       </c>
       <c r="F271" t="n">
         <v>-0.7479</v>
@@ -8114,7 +8228,7 @@
         <v>3.2389</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>-0.2712</v>
       </c>
       <c r="F272" t="n">
         <v>0.9688</v>
@@ -8137,7 +8251,7 @@
         <v>1.3072</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>1.757</v>
       </c>
       <c r="F273" t="n">
         <v>3.4115</v>
@@ -8151,7 +8265,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.1753</v>
+        <v>-0.1754</v>
       </c>
       <c r="C274" t="n">
         <v>-0.5138</v>
@@ -8160,7 +8274,7 @@
         <v>-0.1936</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>-1.6033</v>
       </c>
       <c r="F274" t="n">
         <v>-0.5498</v>
@@ -8183,7 +8297,7 @@
         <v>-0.3232</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>-0.2716</v>
       </c>
       <c r="F275" t="n">
         <v>0.0691</v>
@@ -8197,7 +8311,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0583</v>
+        <v>-0.0584</v>
       </c>
       <c r="C276" t="n">
         <v>-4</v>
@@ -8206,7 +8320,7 @@
         <v>-2.5616</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>0.6912</v>
       </c>
       <c r="F276" t="n">
         <v>-0.8978</v>
@@ -8229,7 +8343,7 @@
         <v>1.3977</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>0.6241</v>
       </c>
       <c r="F277" t="n">
         <v>2.23</v>
@@ -8252,7 +8366,7 @@
         <v>1.7066</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>0.9097</v>
       </c>
       <c r="F278" t="n">
         <v>4.1922</v>
@@ -8275,7 +8389,7 @@
         <v>-1.1939</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>2.1922</v>
       </c>
       <c r="F279" t="n">
         <v>0.0327</v>
@@ -8298,7 +8412,7 @@
         <v>0.2286</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="F280" t="n">
         <v>-1.2426</v>
@@ -8321,7 +8435,7 @@
         <v>1.8247</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>0.7952</v>
       </c>
       <c r="F281" t="n">
         <v>-0.9934</v>
@@ -8344,7 +8458,7 @@
         <v>0.768</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>-0.2959</v>
       </c>
       <c r="F282" t="n">
         <v>-0.7358</v>
@@ -8367,7 +8481,7 @@
         <v>-2.6358</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>-2.0772</v>
       </c>
       <c r="F283" t="n">
         <v>-3.6725</v>
@@ -8390,7 +8504,7 @@
         <v>1.1742</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1.8182</v>
       </c>
       <c r="F284" t="n">
         <v>-0.4197</v>
@@ -8413,7 +8527,7 @@
         <v>1.2572</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>6.8948</v>
       </c>
       <c r="F285" t="n">
         <v>-1.5455</v>
@@ -8436,7 +8550,7 @@
         <v>3.9796</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>-0.7889</v>
       </c>
       <c r="F286" t="n">
         <v>0.4638</v>
@@ -8459,7 +8573,7 @@
         <v>-0.398</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>2.9935</v>
       </c>
       <c r="F287" t="n">
         <v>0.4972</v>
@@ -8482,7 +8596,7 @@
         <v>-0.0307</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>3.5422</v>
       </c>
       <c r="F288" t="n">
         <v>1.2721</v>
@@ -8505,7 +8619,7 @@
         <v>-2.214</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>-1.2281</v>
       </c>
       <c r="F289" t="n">
         <v>13.0495</v>
@@ -8528,7 +8642,7 @@
         <v>-1.0063</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>0.6661</v>
       </c>
       <c r="F290" t="n">
         <v>-2.4383</v>
@@ -8551,7 +8665,7 @@
         <v>1.5248</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>2.4261</v>
       </c>
       <c r="F291" t="n">
         <v>-0.9491</v>
@@ -8574,7 +8688,7 @@
         <v>0.8135</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>1.6365</v>
       </c>
       <c r="F292" t="n">
         <v>0.1597</v>
@@ -8597,7 +8711,7 @@
         <v>0.3104</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>-0.1695</v>
       </c>
       <c r="F293" t="n">
         <v>-0.0319</v>
@@ -8620,7 +8734,7 @@
         <v>-1.2686</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>-0.9762</v>
       </c>
       <c r="F294" t="n">
         <v>-0.8931</v>
@@ -8643,7 +8757,7 @@
         <v>-3.4472</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>-1.0716</v>
       </c>
       <c r="F295" t="n">
         <v>-0.5472</v>
@@ -8666,7 +8780,7 @@
         <v>-2.6615</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>-1.0399</v>
       </c>
       <c r="F296" t="n">
         <v>-0.0324</v>
@@ -8689,7 +8803,7 @@
         <v>0.3668</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>-0.0438</v>
       </c>
       <c r="F297" t="n">
         <v>0.7122</v>
@@ -8712,7 +8826,7 @@
         <v>3.588</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>-0.5256</v>
       </c>
       <c r="F298" t="n">
         <v>-0.4822</v>
@@ -8758,7 +8872,7 @@
         <v>0.3792</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>0.4403</v>
       </c>
       <c r="F300" t="n">
         <v>1.1635</v>
@@ -8781,7 +8895,7 @@
         <v>0.3777</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>-1.5783</v>
       </c>
       <c r="F301" t="n">
         <v>-0.1278</v>
@@ -8804,7 +8918,7 @@
         <v>0.4704</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>-0.5791</v>
       </c>
       <c r="F302" t="n">
         <v>-1.0876</v>
@@ -8827,7 +8941,7 @@
         <v>-0.0936</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>0.1344</v>
       </c>
       <c r="F303" t="n">
         <v>1.6494</v>
@@ -8850,7 +8964,7 @@
         <v>-3.8426</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>3.6689</v>
       </c>
       <c r="F304" t="n">
         <v>0.1591</v>
@@ -8873,7 +8987,7 @@
         <v>-1.2346</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>-0.4316</v>
       </c>
       <c r="F305" t="n">
         <v>-0.6671</v>
@@ -8896,7 +9010,7 @@
         <v>-2.3684</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>-0.0433</v>
       </c>
       <c r="F306" t="n">
         <v>-0.1445</v>
@@ -8919,7 +9033,7 @@
         <v>-2.0889</v>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>-0.4337</v>
       </c>
       <c r="F307" t="n">
         <v>0.0322</v>
@@ -8942,7 +9056,7 @@
         <v>-0.3785</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>2.0906</v>
       </c>
       <c r="F308" t="n">
         <v>2.2508</v>
@@ -8965,7 +9079,7 @@
         <v>0.5181</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>-1.5358</v>
       </c>
       <c r="F309" t="n">
         <v>-5.1887</v>
@@ -8988,7 +9102,7 @@
         <v>0.2837</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>0.9965</v>
       </c>
       <c r="F310" t="n">
         <v>2.1559</v>
@@ -9011,7 +9125,7 @@
         <v>1.662</v>
       </c>
       <c r="E311" t="n">
-        <v>0</v>
+        <v>-0.9009</v>
       </c>
       <c r="F311" t="n">
         <v>0.3247</v>
@@ -9034,7 +9148,7 @@
         <v>5.1478</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>2.4675</v>
       </c>
       <c r="F312" t="n">
         <v>0.712</v>
@@ -9057,7 +9171,7 @@
         <v>2.1833</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>-0.0422</v>
       </c>
       <c r="F313" t="n">
         <v>0.6748</v>
@@ -9080,7 +9194,7 @@
         <v>2.2985</v>
       </c>
       <c r="E314" t="n">
-        <v>0</v>
+        <v>-0.634</v>
       </c>
       <c r="F314" t="n">
         <v>1.4044</v>
@@ -9103,7 +9217,7 @@
         <v>-2.8165</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>-0.2552</v>
       </c>
       <c r="F315" t="n">
         <v>-2.7699</v>
@@ -9126,7 +9240,7 @@
         <v>-0.9443</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>1.4925</v>
       </c>
       <c r="F316" t="n">
         <v>0.9712</v>
@@ -9149,7 +9263,7 @@
         <v>-1.545</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>-1.1345</v>
       </c>
       <c r="F317" t="n">
         <v>0.0321</v>
@@ -9172,7 +9286,7 @@
         <v>-0.2337</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>-1.3175</v>
       </c>
       <c r="F318" t="n">
         <v>0.5769</v>
@@ -9195,7 +9309,7 @@
         <v>3.1459</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>1.5935</v>
       </c>
       <c r="F319" t="n">
         <v>0.2231</v>
@@ -9218,7 +9332,7 @@
         <v>1.3952</v>
       </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>-1.4413</v>
       </c>
       <c r="F320" t="n">
         <v>-0.7631</v>
@@ -9241,7 +9355,7 @@
         <v>4.288</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>-0.3011</v>
       </c>
       <c r="F321" t="n">
         <v>7.7539</v>
@@ -9264,7 +9378,7 @@
         <v>0.5523</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>-0.8628</v>
       </c>
       <c r="F322" t="n">
         <v>-0.3866</v>
@@ -9287,7 +9401,7 @@
         <v>-0.4272</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>-1.9147</v>
       </c>
       <c r="F323" t="n">
         <v>1.3731</v>
@@ -9310,7 +9424,7 @@
         <v>1.3178</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>-0.4437</v>
       </c>
       <c r="F324" t="n">
         <v>-3.4158</v>
@@ -9333,7 +9447,7 @@
         <v>-3.0853</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>0.1337</v>
       </c>
       <c r="F325" t="n">
         <v>1.7073</v>
@@ -9347,7 +9461,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9842</v>
+        <v>-0.9843</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -9356,7 +9470,7 @@
         <v>-0.5618</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>-0.4005</v>
       </c>
       <c r="F326" t="n">
         <v>0.7794</v>
@@ -9379,7 +9493,7 @@
         <v>1.6949</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>-1.2511</v>
       </c>
       <c r="F327" t="n">
         <v>-1.041</v>
@@ -9402,7 +9516,7 @@
         <v>0.7407</v>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>2.3529</v>
       </c>
       <c r="F328" t="n">
         <v>2.7953</v>
@@ -9448,7 +9562,7 @@
         <v>2.6429</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>-2.2989</v>
       </c>
       <c r="F330" t="n">
         <v>-0.6416</v>
@@ -9471,7 +9585,7 @@
         <v>-0.1497</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>-0.362</v>
       </c>
       <c r="F331" t="n">
         <v>-4.6082</v>
@@ -9494,7 +9608,7 @@
         <v>-2.1289</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>-0.545</v>
       </c>
       <c r="F332" t="n">
         <v>-2.3077</v>
@@ -9517,7 +9631,7 @@
         <v>-3.799</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>1.4155</v>
       </c>
       <c r="F333" t="n">
         <v>1.3543</v>
@@ -9540,7 +9654,7 @@
         <v>-2.2293</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>-0.5853</v>
       </c>
       <c r="F334" t="n">
         <v>-1.243</v>
@@ -9563,7 +9677,7 @@
         <v>-2.443</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>-0.4982</v>
       </c>
       <c r="F335" t="n">
         <v>0.4405</v>
@@ -9586,7 +9700,7 @@
         <v>0.2003</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>1.7751</v>
       </c>
       <c r="F336" t="n">
         <v>0.2193</v>
@@ -9609,7 +9723,7 @@
         <v>-2.6991</v>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>-2.6834</v>
       </c>
       <c r="F337" t="n">
         <v>-0.0313</v>
@@ -9632,7 +9746,7 @@
         <v>-0.1027</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>0.1838</v>
       </c>
       <c r="F338" t="n">
         <v>-1.0006</v>
@@ -9655,7 +9769,7 @@
         <v>-4.0453</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>-0.4128</v>
       </c>
       <c r="F339" t="n">
         <v>-3.0638</v>
@@ -9678,7 +9792,7 @@
         <v>2.3223</v>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>2.7176</v>
       </c>
       <c r="F340" t="n">
         <v>2.4438</v>
@@ -9701,7 +9815,7 @@
         <v>-1.3617</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>-0.6726</v>
       </c>
       <c r="F341" t="n">
         <v>3.0534</v>
@@ -9724,7 +9838,7 @@
         <v>3.5752</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>3.8826</v>
       </c>
       <c r="F342" t="n">
         <v>4.0123</v>
@@ -9747,7 +9861,7 @@
         <v>-2.8708</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>0.3042</v>
       </c>
       <c r="F343" t="n">
         <v>-3.0564</v>
@@ -9770,7 +9884,7 @@
         <v>0.4926</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>3.8562</v>
       </c>
       <c r="F344" t="n">
         <v>1.6835</v>
@@ -9793,7 +9907,7 @@
         <v>-0.1401</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>0.3755</v>
       </c>
       <c r="F345" t="n">
         <v>1.174</v>
@@ -9816,7 +9930,7 @@
         <v>-2.7349</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>-0.2909</v>
       </c>
       <c r="F346" t="n">
         <v>-1.8149</v>
@@ -9839,7 +9953,7 @@
         <v>-0.1802</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>2.0008</v>
       </c>
       <c r="F347" t="n">
         <v>-0.1818</v>
@@ -9862,7 +9976,7 @@
         <v>-0.2528</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>-2.1659</v>
       </c>
       <c r="F348" t="n">
         <v>-1.3965</v>
@@ -9885,7 +9999,7 @@
         <v>-0.4345</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>1.6291</v>
       </c>
       <c r="F349" t="n">
         <v>0.7389</v>
@@ -9908,7 +10022,7 @@
         <v>-4.1091</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>-5.672</v>
       </c>
       <c r="F350" t="n">
         <v>-3.7897</v>
@@ -9931,7 +10045,7 @@
         <v>-2.7683</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1.7865</v>
       </c>
       <c r="F351" t="n">
         <v>0.1906</v>
@@ -9954,7 +10068,7 @@
         <v>2.1841</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>-2.8253</v>
       </c>
       <c r="F352" t="n">
         <v>-1.4902</v>
@@ -9977,7 +10091,7 @@
         <v>-1.2595</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1.1013</v>
       </c>
       <c r="F353" t="n">
         <v>1.0621</v>
@@ -10000,7 +10114,7 @@
         <v>1.7395</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>2.4837</v>
       </c>
       <c r="F354" t="n">
         <v>2.2611</v>
@@ -10023,7 +10137,7 @@
         <v>2.7356</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>2.6361</v>
       </c>
       <c r="F355" t="n">
         <v>-2.7406</v>
@@ -10046,7 +10160,7 @@
         <v>0.3698</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>-0.0414</v>
       </c>
       <c r="F356" t="n">
         <v>5.1873</v>
@@ -10069,7 +10183,7 @@
         <v>0.3316</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>-0.9532</v>
       </c>
       <c r="F357" t="n">
         <v>-1.0959</v>
@@ -10092,7 +10206,7 @@
         <v>-1.4322</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>-1.3389</v>
       </c>
       <c r="F358" t="n">
         <v>-1.0465</v>
@@ -10115,7 +10229,7 @@
         <v>-0.149</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>0.8058</v>
       </c>
       <c r="F359" t="n">
         <v>0.1555</v>
@@ -10138,7 +10252,7 @@
         <v>2.2388</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>1.9352</v>
       </c>
       <c r="F360" t="n">
         <v>-0.0311</v>
@@ -10161,7 +10275,7 @@
         <v>2.1898</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>0.908</v>
       </c>
       <c r="F361" t="n">
         <v>-0.3107</v>
@@ -10184,7 +10298,7 @@
         <v>1.9286</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>-0.9816</v>
       </c>
       <c r="F362" t="n">
         <v>0.2493</v>
@@ -10207,7 +10321,7 @@
         <v>0.2453</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>-0.7848</v>
       </c>
       <c r="F363" t="n">
         <v>-1.834</v>
@@ -10253,7 +10367,7 @@
         <v>0.796</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>-1.0408</v>
       </c>
       <c r="F365" t="n">
         <v>-1.1421</v>
@@ -10276,7 +10390,7 @@
         <v>2.1895</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>-1.7249</v>
       </c>
       <c r="F366" t="n">
         <v>-1.5083</v>
@@ -10299,7 +10413,7 @@
         <v>0.562</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>-1.6695</v>
       </c>
       <c r="F367" t="n">
         <v>-0.6191</v>
@@ -10322,7 +10436,7 @@
         <v>3.7024</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>5.0936</v>
       </c>
       <c r="F368" t="n">
         <v>0.4262</v>
@@ -10345,7 +10459,7 @@
         <v>1.0441</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>0.1657</v>
       </c>
       <c r="F369" t="n">
         <v>4.4401</v>
@@ -10368,7 +10482,7 @@
         <v>-1.6667</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>-0.7444</v>
       </c>
       <c r="F370" t="n">
         <v>0.6877</v>
@@ -10391,7 +10505,7 @@
         <v>-1.661</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F371" t="n">
         <v>2.2353</v>
@@ -10414,7 +10528,7 @@
         <v>2.2061</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>-0.8965</v>
       </c>
       <c r="F372" t="n">
         <v>-1.3969</v>
@@ -10437,7 +10551,7 @@
         <v>-1.2142</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>-1.2747</v>
       </c>
       <c r="F373" t="n">
         <v>-2.0018</v>
@@ -10460,7 +10574,7 @@
         <v>-0.9901</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>-1.4577</v>
       </c>
       <c r="F374" t="n">
         <v>0.1257</v>
@@ -10483,7 +10597,7 @@
         <v>-2.3793</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>0.7185</v>
       </c>
       <c r="F375" t="n">
         <v>-0.2197</v>
@@ -10506,7 +10620,7 @@
         <v>-0.5298</v>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>0.2518</v>
       </c>
       <c r="F376" t="n">
         <v>1.0066</v>
@@ -10520,7 +10634,7 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2293</v>
+        <v>-0.2292</v>
       </c>
       <c r="C377" t="n">
         <v>-0.0972</v>
@@ -10529,7 +10643,7 @@
         <v>-0.6037</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>0.3349</v>
       </c>
       <c r="F377" t="n">
         <v>2.18</v>
@@ -10552,7 +10666,7 @@
         <v>-0.7145</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>-2.2945</v>
       </c>
       <c r="F378" t="n">
         <v>-2.0725</v>
@@ -10575,7 +10689,7 @@
         <v>1.1155</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1.4944</v>
       </c>
       <c r="F379" t="n">
         <v>1.5251</v>
@@ -10598,7 +10712,7 @@
         <v>0.3915</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>2.6083</v>
       </c>
       <c r="F380" t="n">
         <v>0.6438</v>
@@ -10621,7 +10735,7 @@
         <v>-1.3825</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>-0.287</v>
       </c>
       <c r="F381" t="n">
         <v>-0.1218</v>
@@ -10644,7 +10758,7 @@
         <v>-1.1143</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>0.9046</v>
       </c>
       <c r="F382" t="n">
         <v>-0.9759</v>
@@ -10667,7 +10781,7 @@
         <v>0.2908</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>-0.6112</v>
       </c>
       <c r="F383" t="n">
         <v>-2.0634</v>
@@ -10690,7 +10804,7 @@
         <v>0.3262</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10704,7 +10818,7 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.5993</v>
+        <v>-1.5992</v>
       </c>
       <c r="C385" t="n">
         <v>2.1151</v>
@@ -10713,7 +10827,7 @@
         <v>1.6257</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>-0.3276</v>
       </c>
       <c r="F385" t="n">
         <v>-0.7547</v>
@@ -10736,7 +10850,7 @@
         <v>0.3555</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1.7666</v>
       </c>
       <c r="F386" t="n">
         <v>1.616</v>
@@ -10759,7 +10873,7 @@
         <v>-0.4959</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>-0.0404</v>
       </c>
       <c r="F387" t="n">
         <v>1.1849</v>
@@ -10782,7 +10896,7 @@
         <v>0.4272</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>0.9289</v>
       </c>
       <c r="F388" t="n">
         <v>-2.3421</v>
@@ -12130,7 +12244,7 @@
         <v>452</v>
       </c>
       <c r="B447" t="n">
-        <v>1.8589</v>
+        <v>1.859</v>
       </c>
       <c r="C447" t="n">
         <v>0.7199</v>
@@ -13211,7 +13325,7 @@
         <v>499</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5572</v>
+        <v>0.5573</v>
       </c>
       <c r="C494" t="n">
         <v>0.7533</v>
@@ -13326,7 +13440,7 @@
         <v>504</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.3068</v>
+        <v>-0.3067</v>
       </c>
       <c r="C499" t="n">
         <v>-1.1121</v>
@@ -13388,6 +13502,880 @@
       </c>
       <c r="G501" t="n">
         <v>0.6829</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>507</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1.8938</v>
+      </c>
+      <c r="D502" t="n">
+        <v>-1.0075</v>
+      </c>
+      <c r="E502" t="n">
+        <v>3.3072</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.4791</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.3244</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>508</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.8101</v>
+      </c>
+      <c r="C503" t="n">
+        <v>-1.1333</v>
+      </c>
+      <c r="D503" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1.2357</v>
+      </c>
+      <c r="G503" t="n">
+        <v>-2.4104</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>509</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1.2556</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-1.5589</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.4924</v>
+      </c>
+      <c r="E504" t="n">
+        <v>-0.5933</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.9703</v>
+      </c>
+      <c r="G504" t="n">
+        <v>1.8072</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>510</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1.3889</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="D505" t="n">
+        <v>-4.0709</v>
+      </c>
+      <c r="E505" t="n">
+        <v>-0.7958</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="G505" t="n">
+        <v>-0.2071</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>511</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.4892</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-0.6944</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-1.8075</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2.5735</v>
+      </c>
+      <c r="F506" t="n">
+        <v>2.2469</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.8005</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>512</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.8763</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.1601</v>
+      </c>
+      <c r="E507" t="n">
+        <v>-1.173</v>
+      </c>
+      <c r="F507" t="n">
+        <v>-1.3245</v>
+      </c>
+      <c r="G507" t="n">
+        <v>-0.4118</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>513</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1.2548</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="F508" t="n">
+        <v>2.0134</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>514</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.0953</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-0.1818</v>
+      </c>
+      <c r="D509" t="n">
+        <v>2.7381</v>
+      </c>
+      <c r="E509" t="n">
+        <v>-0.0987</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.4486</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-1.0641</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>515</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.2863</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.1821</v>
+      </c>
+      <c r="D510" t="n">
+        <v>-1.9699</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.0988</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.686</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>516</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.3302</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.9545</v>
+      </c>
+      <c r="D511" t="n">
+        <v>-0.2758</v>
+      </c>
+      <c r="E511" t="n">
+        <v>2.0395</v>
+      </c>
+      <c r="F511" t="n">
+        <v>2.0833</v>
+      </c>
+      <c r="G511" t="n">
+        <v>-0.5718</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>517</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-2.5748</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-1.9361</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-4.9783</v>
+      </c>
+      <c r="E512" t="n">
+        <v>-0.7737</v>
+      </c>
+      <c r="F512" t="n">
+        <v>-0.2915</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-1.2076</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>518</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.2857</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.6428</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.6632</v>
+      </c>
+      <c r="E513" t="n">
+        <v>-0.2924</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1.1988</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-0.4657</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>519</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-2.2923</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-3.1478</v>
+      </c>
+      <c r="D514" t="n">
+        <v>-2.6994</v>
+      </c>
+      <c r="E514" t="n">
+        <v>-1.955</v>
+      </c>
+      <c r="F514" t="n">
+        <v>-1.098</v>
+      </c>
+      <c r="G514" t="n">
+        <v>-1.9298</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>520</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-0.2933</v>
+      </c>
+      <c r="C515" t="n">
+        <v>2.2138</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.8075</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.9305</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.4382</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.8348</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>521</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.4902</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1.4747</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.1239</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2.4366</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1.1344</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-0.0591</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>522</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.9852</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-1.2716</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-2.6804</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.3214</v>
+      </c>
+      <c r="F517" t="n">
+        <v>-1.7256</v>
+      </c>
+      <c r="G517" t="n">
+        <v>-1.3314</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>523</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1.6915</v>
+      </c>
+      <c r="C518" t="n">
+        <v>3.8639</v>
+      </c>
+      <c r="D518" t="n">
+        <v>-1.9068</v>
+      </c>
+      <c r="E518" t="n">
+        <v>-0.1922</v>
+      </c>
+      <c r="F518" t="n">
+        <v>-1.9901</v>
+      </c>
+      <c r="G518" t="n">
+        <v>-1.8291</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>524</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.5871</v>
+      </c>
+      <c r="C519" t="n">
+        <v>-1.1515</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.6047</v>
+      </c>
+      <c r="E519" t="n">
+        <v>1.4125</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.6271</v>
+      </c>
+      <c r="G519" t="n">
+        <v>-1.4966</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>525</v>
+      </c>
+      <c r="B520" t="n">
+        <v>2.1654</v>
+      </c>
+      <c r="C520" t="n">
+        <v>2.8226</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.9557</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.9813</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.8694</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.9302</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>526</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.3854</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.4793</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.7673</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.8495</v>
+      </c>
+      <c r="F521" t="n">
+        <v>8.797</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1.8126</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>527</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.4798</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1.7346</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2.4535</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.7695</v>
+      </c>
+      <c r="F522" t="n">
+        <v>-0.2677</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2.7761</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>528</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.5731</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.8258</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.5192</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.9396</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-0.5872</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>529</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.1921</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1.2319</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-1.7199</v>
+      </c>
+      <c r="E524" t="n">
+        <v>-0.0304</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-0.2953</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>530</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-1.155</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1.9723</v>
+      </c>
+      <c r="D525" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.9119</v>
+      </c>
+      <c r="F525" t="n">
+        <v>3.5857</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>531</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.6872</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="E526" t="n">
+        <v>-1.3253</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.8547</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>532</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-0.0966</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-1.0117</v>
+      </c>
+      <c r="D527" t="n">
+        <v>-2.4668</v>
+      </c>
+      <c r="E527" t="n">
+        <v>-0.3053</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-0.7014</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>533</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.2901</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-0.6132</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.7782</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-0.2354</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>534</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.4822</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-0.8638</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.2756</v>
+      </c>
+      <c r="F529" t="n">
+        <v>-0.1013</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-1.5634</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>535</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.6783</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-1.3278</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-2.156</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1.6794</v>
+      </c>
+      <c r="F530" t="n">
+        <v>1.3685</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.1798</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>536</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.4812</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1.3036</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="E531" t="n">
+        <v>-1.8619</v>
+      </c>
+      <c r="F531" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-2.5725</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>537</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.3831</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1.4944</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-0.7209</v>
+      </c>
+      <c r="E532" t="n">
+        <v>3.9168</v>
+      </c>
+      <c r="F532" t="n">
+        <v>-0.4146</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1.2895</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>538</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.6679</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-1.3906</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.5732</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.4122</v>
+      </c>
+      <c r="F533" t="n">
+        <v>-1.5675</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-4.8196</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>539</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-3.4582</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-4.6039</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-5.9968</v>
+      </c>
+      <c r="E534" t="n">
+        <v>-0.2053</v>
+      </c>
+      <c r="F534" t="n">
+        <v>-3.5581</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-3.6943</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>540</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-1.8905</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-1.0435</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-1.2674</v>
+      </c>
+      <c r="E535" t="n">
+        <v>-1.8513</v>
+      </c>
+      <c r="F535" t="n">
+        <v>-0.7224</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-0.463</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>541</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.7606</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-0.703</v>
+      </c>
+      <c r="D536" t="n">
+        <v>2.0111</v>
+      </c>
+      <c r="E536" t="n">
+        <v>-1.5269</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.3514</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-15.4153</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>542</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-3.5769</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-5.2655</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-3.6493</v>
+      </c>
+      <c r="E537" t="n">
+        <v>-3.1012</v>
+      </c>
+      <c r="F537" t="n">
+        <v>-2.282</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-6.52</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>543</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.7949</v>
+      </c>
+      <c r="C538" t="n">
+        <v>-2.2419</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="E538" t="n">
+        <v>-4.487</v>
+      </c>
+      <c r="F538" t="n">
+        <v>-1.6006</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.6807</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>544</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-1.0879</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1.9711</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1.6529</v>
       </c>
     </row>
   </sheetData>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1647,6 +1647,66 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-30</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2127,7 @@
         <v>6.2802</v>
       </c>
       <c r="F4" t="n">
-        <v>1.998</v>
+        <v>1.9981</v>
       </c>
       <c r="G4" t="n">
         <v>-0.0409</v>
@@ -2199,7 +2259,7 @@
         <v>0.763</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.4022</v>
+        <v>-2.4021</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2406,7 +2466,7 @@
         <v>1.7603</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3679</v>
+        <v>1.368</v>
       </c>
       <c r="E19" t="n">
         <v>3.0027</v>
@@ -2498,7 +2558,7 @@
         <v>-0.5749</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3961</v>
+        <v>0.3962</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2732</v>
@@ -2527,7 +2587,7 @@
         <v>-2.6484</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.7347</v>
+        <v>-3.7346</v>
       </c>
       <c r="G24" t="n">
         <v>-1.3316</v>
@@ -3079,7 +3139,7 @@
         <v>0.84</v>
       </c>
       <c r="F48" t="n">
-        <v>2.9231</v>
+        <v>2.9232</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3148,7 +3208,7 @@
         <v>-0.3968</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.2696</v>
+        <v>-0.2695</v>
       </c>
       <c r="G51" t="n">
         <v>-0.6192</v>
@@ -3470,7 +3530,7 @@
         <v>2.0098</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3854</v>
+        <v>1.3855</v>
       </c>
       <c r="G65" t="n">
         <v>1.1628</v>
@@ -4082,7 +4142,7 @@
         <v>0.6311</v>
       </c>
       <c r="C92" t="n">
-        <v>1.3109</v>
+        <v>1.3108</v>
       </c>
       <c r="D92" t="n">
         <v>1.5588</v>
@@ -4252,7 +4312,7 @@
         <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7813</v>
+        <v>-0.7812</v>
       </c>
       <c r="G99" t="n">
         <v>-0.4138</v>
@@ -4381,7 +4441,7 @@
         <v>0.5409</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0929</v>
+        <v>-0.0928</v>
       </c>
       <c r="D105" t="n">
         <v>-0.2526</v>
@@ -4430,7 +4490,7 @@
         <v>2.1556</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3705</v>
+        <v>0.3704</v>
       </c>
       <c r="E107" t="n">
         <v>-0.5462</v>
@@ -4482,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7211</v>
+        <v>0.7212</v>
       </c>
       <c r="G109" t="n">
         <v>0.1804</v>
@@ -4775,7 +4835,7 @@
         <v>-0.1752</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.8068</v>
+        <v>-1.8067</v>
       </c>
       <c r="E122" t="n">
         <v>-0.528</v>
@@ -4864,7 +4924,7 @@
         <v>0.2651</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.8065</v>
+        <v>-0.8064</v>
       </c>
       <c r="D126" t="n">
         <v>-2.4042</v>
@@ -5034,7 +5094,7 @@
         <v>2.2936</v>
       </c>
       <c r="F133" t="n">
-        <v>2.0199</v>
+        <v>2.0198</v>
       </c>
       <c r="G133" t="n">
         <v>-0.1794</v>
@@ -5356,7 +5416,7 @@
         <v>-2.2841</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6679</v>
+        <v>0.668</v>
       </c>
       <c r="G147" t="n">
         <v>0.595</v>
@@ -5540,7 +5600,7 @@
         <v>0.7663</v>
       </c>
       <c r="F155" t="n">
-        <v>2.9903</v>
+        <v>2.9904</v>
       </c>
       <c r="G155" t="n">
         <v>-3.8869</v>
@@ -5784,7 +5844,7 @@
         <v>0.702</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.5885</v>
+        <v>-1.5886</v>
       </c>
       <c r="D166" t="n">
         <v>-1.4815</v>
@@ -5793,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3292</v>
+        <v>-0.3291</v>
       </c>
       <c r="G166" t="n">
         <v>-0.6206</v>
@@ -5807,7 +5867,7 @@
         <v>-0.3802</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1058</v>
+        <v>0.1059</v>
       </c>
       <c r="D167" t="n">
         <v>-1.0526</v>
@@ -5922,7 +5982,7 @@
         <v>0.1922</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.9379</v>
+        <v>-2.9378</v>
       </c>
       <c r="D172" t="n">
         <v>1.0916</v>
@@ -6129,7 +6189,7 @@
         <v>0.0623</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.9266</v>
+        <v>-3.9265</v>
       </c>
       <c r="D181" t="n">
         <v>0.378</v>
@@ -6391,7 +6451,7 @@
         <v>-1.1958</v>
       </c>
       <c r="F192" t="n">
-        <v>-8.1736</v>
+        <v>-8.1735</v>
       </c>
       <c r="G192" t="n">
         <v>-3.453</v>
@@ -6428,7 +6488,7 @@
         <v>-0.9205</v>
       </c>
       <c r="C194" t="n">
-        <v>1.6889</v>
+        <v>1.689</v>
       </c>
       <c r="D194" t="n">
         <v>-2.459</v>
@@ -6644,7 +6704,7 @@
         <v>-4.4592</v>
       </c>
       <c r="F203" t="n">
-        <v>-2.6652</v>
+        <v>-2.6653</v>
       </c>
       <c r="G203" t="n">
         <v>-3.0082</v>
@@ -6713,7 +6773,7 @@
         <v>2.0697</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1481</v>
+        <v>0.1482</v>
       </c>
       <c r="G206" t="n">
         <v>-0.4748</v>
@@ -6799,7 +6859,7 @@
         <v>4.907</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7227</v>
+        <v>0.7228</v>
       </c>
       <c r="E210" t="n">
         <v>5.0532</v>
@@ -6966,7 +7026,7 @@
         <v>-3.3454</v>
       </c>
       <c r="F217" t="n">
-        <v>-1.915</v>
+        <v>-1.9151</v>
       </c>
       <c r="G217" t="n">
         <v>0.4904</v>
@@ -7150,7 +7210,7 @@
         <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>1.4894</v>
+        <v>1.4895</v>
       </c>
       <c r="G225" t="n">
         <v>-0.4865</v>
@@ -7173,7 +7233,7 @@
         <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>2.7314</v>
+        <v>2.7313</v>
       </c>
       <c r="G226" t="n">
         <v>-0.6667</v>
@@ -7449,7 +7509,7 @@
         <v>-0.0976</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.439</v>
+        <v>-0.4389</v>
       </c>
       <c r="G238" t="n">
         <v>2.1557</v>
@@ -7463,7 +7523,7 @@
         <v>1.4286</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6072</v>
+        <v>-0.6071</v>
       </c>
       <c r="D239" t="n">
         <v>0.0966</v>
@@ -7489,7 +7549,7 @@
         <v>-0.1078</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.579</v>
+        <v>-0.5789</v>
       </c>
       <c r="E240" t="n">
         <v>1.0412</v>
@@ -7581,7 +7641,7 @@
         <v>-2.2174</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0334</v>
+        <v>0.0333</v>
       </c>
       <c r="E244" t="n">
         <v>2.0703</v>
@@ -7647,7 +7707,7 @@
         <v>-0.3096</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.5984</v>
+        <v>-1.5985</v>
       </c>
       <c r="D247" t="n">
         <v>-4.8772</v>
@@ -8038,7 +8098,7 @@
         <v>-0.6237</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.7937</v>
+        <v>-0.7936</v>
       </c>
       <c r="D264" t="n">
         <v>-1.7549</v>
@@ -8208,7 +8268,7 @@
         <v>1.2247</v>
       </c>
       <c r="F271" t="n">
-        <v>-0.7479</v>
+        <v>-0.7478</v>
       </c>
       <c r="G271" t="n">
         <v>2.3066</v>
@@ -8271,7 +8331,7 @@
         <v>-0.5138</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.1936</v>
+        <v>-0.1935</v>
       </c>
       <c r="E274" t="n">
         <v>-1.6033</v>
@@ -8797,7 +8857,7 @@
         <v>0.5605</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8313</v>
+        <v>0.8314</v>
       </c>
       <c r="D297" t="n">
         <v>0.3668</v>
@@ -8866,7 +8926,7 @@
         <v>0.7174</v>
       </c>
       <c r="C300" t="n">
-        <v>2.4777</v>
+        <v>2.4778</v>
       </c>
       <c r="D300" t="n">
         <v>0.3792</v>
@@ -8921,7 +8981,7 @@
         <v>-0.5791</v>
       </c>
       <c r="F302" t="n">
-        <v>-1.0876</v>
+        <v>-1.0877</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
@@ -9496,7 +9556,7 @@
         <v>-1.2511</v>
       </c>
       <c r="F327" t="n">
-        <v>-1.041</v>
+        <v>-1.0411</v>
       </c>
       <c r="G327" t="n">
         <v>-1.377</v>
@@ -10278,7 +10338,7 @@
         <v>0.908</v>
       </c>
       <c r="F361" t="n">
-        <v>-0.3107</v>
+        <v>-0.3106</v>
       </c>
       <c r="G361" t="n">
         <v>0.7842</v>
@@ -10522,7 +10582,7 @@
         <v>-0.4537</v>
       </c>
       <c r="C372" t="n">
-        <v>0.6728</v>
+        <v>0.6727</v>
       </c>
       <c r="D372" t="n">
         <v>2.2061</v>
@@ -10554,7 +10614,7 @@
         <v>-1.2747</v>
       </c>
       <c r="F373" t="n">
-        <v>-2.0018</v>
+        <v>-2.0019</v>
       </c>
       <c r="G373" t="n">
         <v>-1.3074</v>
@@ -10617,7 +10677,7 @@
         <v>1.33</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.5298</v>
+        <v>-0.5299</v>
       </c>
       <c r="E376" t="n">
         <v>0.2518</v>
@@ -10660,7 +10720,7 @@
         <v>0.1838</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8272</v>
+        <v>0.8273</v>
       </c>
       <c r="D378" t="n">
         <v>-0.7145</v>
@@ -10784,7 +10844,7 @@
         <v>-0.6112</v>
       </c>
       <c r="F383" t="n">
-        <v>-2.0634</v>
+        <v>-2.0635</v>
       </c>
       <c r="G383" t="n">
         <v>-3.1476</v>
@@ -11037,7 +11097,7 @@
         <v>-1.4575</v>
       </c>
       <c r="F394" t="n">
-        <v>-3.529</v>
+        <v>-3.5291</v>
       </c>
       <c r="G394" t="n">
         <v>-3.0271</v>
@@ -11083,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="n">
-        <v>1.3667</v>
+        <v>1.3668</v>
       </c>
       <c r="G396" t="n">
         <v>0.3885</v>
@@ -11382,7 +11442,7 @@
         <v>-0.8358</v>
       </c>
       <c r="F409" t="n">
-        <v>-4.8814</v>
+        <v>-4.8813</v>
       </c>
       <c r="G409" t="n">
         <v>0.9214</v>
@@ -11635,7 +11695,7 @@
         <v>-4.5634</v>
       </c>
       <c r="F420" t="n">
-        <v>-2.8833</v>
+        <v>-2.8832</v>
       </c>
       <c r="G420" t="n">
         <v>0.7582</v>
@@ -11704,7 +11764,7 @@
         <v>-0.6909</v>
       </c>
       <c r="F423" t="n">
-        <v>2.625</v>
+        <v>2.6249</v>
       </c>
       <c r="G423" t="n">
         <v>0.9477</v>
@@ -11882,7 +11942,7 @@
         <v>-1.1259</v>
       </c>
       <c r="D431" t="n">
-        <v>-1.027</v>
+        <v>-1.0271</v>
       </c>
       <c r="E431" t="n">
         <v>-0.7065</v>
@@ -11905,7 +11965,7 @@
         <v>-0.3796</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.1384</v>
+        <v>-0.1383</v>
       </c>
       <c r="E432" t="n">
         <v>0.8538</v>
@@ -12279,7 +12339,7 @@
         <v>-0.0355</v>
       </c>
       <c r="F448" t="n">
-        <v>-2.9358</v>
+        <v>-2.9359</v>
       </c>
       <c r="G448" t="n">
         <v>0.8292</v>
@@ -12463,7 +12523,7 @@
         <v>1.1119</v>
       </c>
       <c r="F456" t="n">
-        <v>4.4231</v>
+        <v>4.4232</v>
       </c>
       <c r="G456" t="n">
         <v>-0.6807</v>
@@ -12601,7 +12661,7 @@
         <v>2.6343</v>
       </c>
       <c r="F462" t="n">
-        <v>3.1629</v>
+        <v>3.1628</v>
       </c>
       <c r="G462" t="n">
         <v>0.2412</v>
@@ -12684,7 +12744,7 @@
         <v>-0.6978</v>
       </c>
       <c r="C466" t="n">
-        <v>-2.2645</v>
+        <v>-2.2646</v>
       </c>
       <c r="D466" t="n">
         <v>-1.1328</v>
@@ -13107,7 +13167,7 @@
         <v>-2.0433</v>
       </c>
       <c r="F484" t="n">
-        <v>-2.1539</v>
+        <v>-2.154</v>
       </c>
       <c r="G484" t="n">
         <v>-2.1451</v>
@@ -13613,7 +13673,7 @@
         <v>2.5735</v>
       </c>
       <c r="F506" t="n">
-        <v>2.2469</v>
+        <v>2.2468</v>
       </c>
       <c r="G506" t="n">
         <v>0.8005</v>
@@ -13880,7 +13940,7 @@
         <v>1.6915</v>
       </c>
       <c r="C518" t="n">
-        <v>3.8639</v>
+        <v>3.8638</v>
       </c>
       <c r="D518" t="n">
         <v>-1.9068</v>
@@ -13889,7 +13949,7 @@
         <v>-0.1922</v>
       </c>
       <c r="F518" t="n">
-        <v>-1.9901</v>
+        <v>-1.99</v>
       </c>
       <c r="G518" t="n">
         <v>-1.8291</v>
@@ -14018,7 +14078,7 @@
         <v>-0.1921</v>
       </c>
       <c r="C524" t="n">
-        <v>1.2319</v>
+        <v>1.232</v>
       </c>
       <c r="D524" t="n">
         <v>-1.7199</v>
@@ -14064,7 +14124,7 @@
         <v>0.779</v>
       </c>
       <c r="C526" t="n">
-        <v>1.6872</v>
+        <v>1.6873</v>
       </c>
       <c r="D526" t="n">
         <v>1.074</v>
@@ -14326,7 +14386,7 @@
         <v>-3.1012</v>
       </c>
       <c r="F537" t="n">
-        <v>-2.282</v>
+        <v>-2.2821</v>
       </c>
       <c r="G537" t="n">
         <v>-6.52</v>
@@ -14376,6 +14436,466 @@
       </c>
       <c r="G539" t="n">
         <v>1.6529</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>545</v>
+      </c>
+      <c r="B540" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1.6167</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1.7397</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-1.7073</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>546</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1.5073</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.1872</v>
+      </c>
+      <c r="D541" t="n">
+        <v>-3.7604</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.7283</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-3.3454</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-4.8801</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>547</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-2.6114</v>
+      </c>
+      <c r="C542" t="n">
+        <v>-2.2419</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-3.9073</v>
+      </c>
+      <c r="E542" t="n">
+        <v>-0.0629</v>
+      </c>
+      <c r="F542" t="n">
+        <v>-0.6708</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-3.7826</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>548</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.8412</v>
+      </c>
+      <c r="C543" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="D543" t="n">
+        <v>-1.3712</v>
+      </c>
+      <c r="E543" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="F543" t="n">
+        <v>-0.1351</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-1.9431</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>549</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-5.6204</v>
+      </c>
+      <c r="C544" t="n">
+        <v>-11.3487</v>
+      </c>
+      <c r="D544" t="n">
+        <v>-8.4372</v>
+      </c>
+      <c r="E544" t="n">
+        <v>-5.9168</v>
+      </c>
+      <c r="F544" t="n">
+        <v>-5.545</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-4.8387</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>550</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-1.3483</v>
+      </c>
+      <c r="C545" t="n">
+        <v>-1.8146</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-1.7801</v>
+      </c>
+      <c r="E545" t="n">
+        <v>-1.1057</v>
+      </c>
+      <c r="F545" t="n">
+        <v>-2.6346</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2.7603</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>551</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-2.9613</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-3.6286</v>
+      </c>
+      <c r="D546" t="n">
+        <v>-1.3859</v>
+      </c>
+      <c r="E546" t="n">
+        <v>-2.9001</v>
+      </c>
+      <c r="F546" t="n">
+        <v>-5.8529</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-5.0895</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>552</v>
+      </c>
+      <c r="B547" t="n">
+        <v>-9.2723</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-9.0739</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-15.6216</v>
+      </c>
+      <c r="E547" t="n">
+        <v>-12.7744</v>
+      </c>
+      <c r="F547" t="n">
+        <v>-10.0267</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-9.7716</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>553</v>
+      </c>
+      <c r="B548" t="n">
+        <v>6.533</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="D548" t="n">
+        <v>3.5234</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2.3515</v>
+      </c>
+      <c r="F548" t="n">
+        <v>-4.8483</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-1.805</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>554</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-2.1251</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-4.8329</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="E549" t="n">
+        <v>-7.3358</v>
+      </c>
+      <c r="F549" t="n">
+        <v>-7.4047</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2.2865</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>555</v>
+      </c>
+      <c r="B550" t="n">
+        <v>7.2581</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.2161</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-2.7565</v>
+      </c>
+      <c r="E550" t="n">
+        <v>3.7408</v>
+      </c>
+      <c r="F550" t="n">
+        <v>-5.6215</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-3.879</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>556</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>10.8067</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-6.2992</v>
+      </c>
+      <c r="E551" t="n">
+        <v>-1.1321</v>
+      </c>
+      <c r="F551" t="n">
+        <v>2.7685</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-14.4779</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>557</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.5205</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-8.4706</v>
+      </c>
+      <c r="E552" t="n">
+        <v>9.7116</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2.9388</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-5.5452</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>558</v>
+      </c>
+      <c r="B553" t="n">
+        <v>-5.9302</v>
+      </c>
+      <c r="C553" t="n">
+        <v>2.8807</v>
+      </c>
+      <c r="D553" t="n">
+        <v>5.1414</v>
+      </c>
+      <c r="E553" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="F553" t="n">
+        <v>6.1459</v>
+      </c>
+      <c r="G553" t="n">
+        <v>11.5439</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>559</v>
+      </c>
+      <c r="B554" t="n">
+        <v>-6.7367</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-9.28</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-4.9249</v>
+      </c>
+      <c r="E554" t="n">
+        <v>-5.8084</v>
+      </c>
+      <c r="F554" t="n">
+        <v>-7.3216</v>
+      </c>
+      <c r="G554" t="n">
+        <v>7.1103</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>560</v>
+      </c>
+      <c r="B555" t="n">
+        <v>2.5845</v>
+      </c>
+      <c r="C555" t="n">
+        <v>2.9688</v>
+      </c>
+      <c r="D555" t="n">
+        <v>7.2373</v>
+      </c>
+      <c r="E555" t="n">
+        <v>5.4988</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2.6199</v>
+      </c>
+      <c r="G555" t="n">
+        <v>6.8037</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>561</v>
+      </c>
+      <c r="B556" t="n">
+        <v>2.907</v>
+      </c>
+      <c r="C556" t="n">
+        <v>5.5952</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-1.6101</v>
+      </c>
+      <c r="E556" t="n">
+        <v>1.3031</v>
+      </c>
+      <c r="F556" t="n">
+        <v>6.2844</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2.6985</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>562</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.565</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1.8654</v>
+      </c>
+      <c r="D557" t="n">
+        <v>7.1165</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="F557" t="n">
+        <v>6.0236</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>563</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.2497</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-1.7516</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-0.2065</v>
+      </c>
+      <c r="E558" t="n">
+        <v>-1.4679</v>
+      </c>
+      <c r="F558" t="n">
+        <v>-2.405</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-3.8872</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>564</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3.0038</v>
+      </c>
+      <c r="C559" t="n">
+        <v>-0.8644</v>
+      </c>
+      <c r="D559" t="n">
+        <v>5.2777</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1.0357</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1707,6 +1707,42 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-20</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2488,7 @@
         <v>-0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.6509</v>
+        <v>-1.6508</v>
       </c>
     </row>
     <row r="19">
@@ -3280,7 +3316,7 @@
         <v>-0.5827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9426</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="55">
@@ -3326,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.4505</v>
+        <v>-0.4504</v>
       </c>
     </row>
     <row r="57">
@@ -3602,7 +3638,7 @@
         <v>1.0859</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1382</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="69">
@@ -3924,7 +3960,7 @@
         <v>1.7019</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6019</v>
+        <v>-0.6018</v>
       </c>
     </row>
     <row r="83">
@@ -3993,7 +4029,7 @@
         <v>1.2717</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1827</v>
+        <v>0.1826</v>
       </c>
     </row>
     <row r="86">
@@ -4016,7 +4052,7 @@
         <v>2.2604</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.547</v>
+        <v>-0.5469</v>
       </c>
     </row>
     <row r="87">
@@ -4453,7 +4489,7 @@
         <v>-0.6375</v>
       </c>
       <c r="G105" t="n">
-        <v>1.4117</v>
+        <v>1.4116</v>
       </c>
     </row>
     <row r="106">
@@ -5258,7 +5294,7 @@
         <v>1.4389</v>
       </c>
       <c r="G140" t="n">
-        <v>1.3956</v>
+        <v>1.3955</v>
       </c>
     </row>
     <row r="141">
@@ -5534,7 +5570,7 @@
         <v>5.3753</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6466</v>
+        <v>0.6465</v>
       </c>
     </row>
     <row r="153">
@@ -6109,7 +6145,7 @@
         <v>-1.9417</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.0922</v>
+        <v>-0.0923</v>
       </c>
     </row>
     <row r="178">
@@ -6247,7 +6283,7 @@
         <v>1.0719</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8065</v>
+        <v>0.8064</v>
       </c>
     </row>
     <row r="184">
@@ -6546,7 +6582,7 @@
         <v>3.9245</v>
       </c>
       <c r="G196" t="n">
-        <v>0.7022</v>
+        <v>0.7023</v>
       </c>
     </row>
     <row r="197">
@@ -7512,7 +7548,7 @@
         <v>-0.4389</v>
       </c>
       <c r="G238" t="n">
-        <v>2.1557</v>
+        <v>2.1558</v>
       </c>
     </row>
     <row r="239">
@@ -7834,7 +7870,7 @@
         <v>1.7645</v>
       </c>
       <c r="G252" t="n">
-        <v>-1.5052</v>
+        <v>-1.5051</v>
       </c>
     </row>
     <row r="253">
@@ -7880,7 +7916,7 @@
         <v>0.2535</v>
       </c>
       <c r="G254" t="n">
-        <v>-0.0525</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="255">
@@ -8271,7 +8307,7 @@
         <v>-0.7478</v>
       </c>
       <c r="G271" t="n">
-        <v>2.3066</v>
+        <v>2.3067</v>
       </c>
     </row>
     <row r="272">
@@ -8340,7 +8376,7 @@
         <v>-0.5498</v>
       </c>
       <c r="G274" t="n">
-        <v>-2.092</v>
+        <v>-2.0919</v>
       </c>
     </row>
     <row r="275">
@@ -8432,7 +8468,7 @@
         <v>4.1922</v>
       </c>
       <c r="G278" t="n">
-        <v>0.5816</v>
+        <v>0.5815</v>
       </c>
     </row>
     <row r="279">
@@ -8846,7 +8882,7 @@
         <v>-0.0324</v>
       </c>
       <c r="G296" t="n">
-        <v>-0.7407</v>
+        <v>-0.7408</v>
       </c>
     </row>
     <row r="297">
@@ -10065,7 +10101,7 @@
         <v>0.7389</v>
       </c>
       <c r="G349" t="n">
-        <v>-1.5529</v>
+        <v>-1.553</v>
       </c>
     </row>
     <row r="350">
@@ -10479,7 +10515,7 @@
         <v>-0.6191</v>
       </c>
       <c r="G367" t="n">
-        <v>-0.2275</v>
+        <v>-0.2274</v>
       </c>
     </row>
     <row r="368">
@@ -10916,7 +10952,7 @@
         <v>1.616</v>
       </c>
       <c r="G386" t="n">
-        <v>-0.1814</v>
+        <v>-0.1813</v>
       </c>
     </row>
     <row r="387">
@@ -11100,7 +11136,7 @@
         <v>-3.5291</v>
       </c>
       <c r="G394" t="n">
-        <v>-3.0271</v>
+        <v>-3.027</v>
       </c>
     </row>
     <row r="395">
@@ -11974,7 +12010,7 @@
         <v>1.5</v>
       </c>
       <c r="G432" t="n">
-        <v>0.848</v>
+        <v>0.8479</v>
       </c>
     </row>
     <row r="433">
@@ -12135,7 +12171,7 @@
         <v>0.1092</v>
       </c>
       <c r="G439" t="n">
-        <v>0.1872</v>
+        <v>0.1871</v>
       </c>
     </row>
     <row r="440">
@@ -12181,7 +12217,7 @@
         <v>-1.6023</v>
       </c>
       <c r="G441" t="n">
-        <v>0.1897</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="442">
@@ -12756,7 +12792,7 @@
         <v>0.7895</v>
       </c>
       <c r="G466" t="n">
-        <v>0.5547</v>
+        <v>0.5546</v>
       </c>
     </row>
     <row r="467">
@@ -13285,7 +13321,7 @@
         <v>2.549</v>
       </c>
       <c r="G489" t="n">
-        <v>2.5592</v>
+        <v>2.5593</v>
       </c>
     </row>
     <row r="490">
@@ -13607,7 +13643,7 @@
         <v>1.2357</v>
       </c>
       <c r="G503" t="n">
-        <v>-2.4104</v>
+        <v>-2.4103</v>
       </c>
     </row>
     <row r="504">
@@ -14113,7 +14149,7 @@
         <v>3.5857</v>
       </c>
       <c r="G525" t="n">
-        <v>0.5035</v>
+        <v>0.5036</v>
       </c>
     </row>
     <row r="526">
@@ -14896,6 +14932,282 @@
       </c>
       <c r="G559" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>565</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1.6403</v>
+      </c>
+      <c r="C560" t="n">
+        <v>4.7684</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.6225</v>
+      </c>
+      <c r="E560" t="n">
+        <v>1.9622</v>
+      </c>
+      <c r="F560" t="n">
+        <v>7.3878</v>
+      </c>
+      <c r="G560" t="n">
+        <v>3.2472</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>566</v>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.1195</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-3.7451</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-2.5399</v>
+      </c>
+      <c r="E561" t="n">
+        <v>-0.0363</v>
+      </c>
+      <c r="F561" t="n">
+        <v>-3.555</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-1.7116</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>567</v>
+      </c>
+      <c r="B562" t="n">
+        <v>2.8725</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-0.9187</v>
+      </c>
+      <c r="D562" t="n">
+        <v>2.1717</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.1816</v>
+      </c>
+      <c r="F562" t="n">
+        <v>-1.1945</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.1306</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>568</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.4072</v>
+      </c>
+      <c r="C563" t="n">
+        <v>-1.4726</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-2.4526</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.2763</v>
+      </c>
+      <c r="G563" t="n">
+        <v>4.4128</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>569</v>
+      </c>
+      <c r="B564" t="n">
+        <v>2.5701</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.4946</v>
+      </c>
+      <c r="D564" t="n">
+        <v>4.3916</v>
+      </c>
+      <c r="E564" t="n">
+        <v>5.8354</v>
+      </c>
+      <c r="F564" t="n">
+        <v>6.1316</v>
+      </c>
+      <c r="G564" t="n">
+        <v>4.8171</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>570</v>
+      </c>
+      <c r="B565" t="n">
+        <v>4.7266</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3.5179</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.9499</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="F565" t="n">
+        <v>3.9597</v>
+      </c>
+      <c r="G565" t="n">
+        <v>9.0939</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>571</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.5982</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-2.4499</v>
+      </c>
+      <c r="D566" t="n">
+        <v>-0.4016</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.2052</v>
+      </c>
+      <c r="F566" t="n">
+        <v>-1.1552</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.8445</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>572</v>
+      </c>
+      <c r="B567" t="n">
+        <v>2.2703</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.5401</v>
+      </c>
+      <c r="D567" t="n">
+        <v>2.0161</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2.2526</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2.2742</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.6108</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>573</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="C568" t="n">
+        <v>-4.9423</v>
+      </c>
+      <c r="D568" t="n">
+        <v>-6.8714</v>
+      </c>
+      <c r="E568" t="n">
+        <v>-1.235</v>
+      </c>
+      <c r="F568" t="n">
+        <v>-2.2854</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-3.6486</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>574</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-2.7157</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-1.4976</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-2.9383</v>
+      </c>
+      <c r="E569" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-6.7265</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>575</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.3831</v>
+      </c>
+      <c r="C570" t="n">
+        <v>5.4504</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="E570" t="n">
+        <v>3.0918</v>
+      </c>
+      <c r="F570" t="n">
+        <v>1.4551</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.3205</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>576</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1.7582</v>
+      </c>
+      <c r="C571" t="n">
+        <v>-0.6801</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E571" t="n">
+        <v>1.2899</v>
+      </c>
+      <c r="F571" t="n">
+        <v>1.8004</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-0.6086</v>
       </c>
     </row>
   </sheetData>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1743,6 +1743,33 @@
   </si>
   <si>
     <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
   </si>
 </sst>
 </file>
@@ -15210,6 +15237,213 @@
         <v>-0.6086</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>577</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-3.6428</v>
+      </c>
+      <c r="D572" t="n">
+        <v>-6.4205</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.9233</v>
+      </c>
+      <c r="F572" t="n">
+        <v>-1.1091</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-3.9804</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>578</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-1.1828</v>
+      </c>
+      <c r="C573" t="n">
+        <v>2.4446</v>
+      </c>
+      <c r="D573" t="n">
+        <v>3.3772</v>
+      </c>
+      <c r="E573" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="F573" t="n">
+        <v>-1.455</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-1.3605</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>579</v>
+      </c>
+      <c r="B574" t="n">
+        <v>-1.3058</v>
+      </c>
+      <c r="C574" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="D574" t="n">
+        <v>4.5392</v>
+      </c>
+      <c r="E574" t="n">
+        <v>3.2157</v>
+      </c>
+      <c r="F574" t="n">
+        <v>3.4758</v>
+      </c>
+      <c r="G574" t="n">
+        <v>3.6853</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>580</v>
+      </c>
+      <c r="B575" t="n">
+        <v>-2.3704</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-3.2039</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.0658</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F575" t="n">
+        <v>-1.5755</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-4.4066</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>581</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1.1858</v>
+      </c>
+      <c r="C576" t="n">
+        <v>4.2076</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.2492</v>
+      </c>
+      <c r="E576" t="n">
+        <v>-0.9633</v>
+      </c>
+      <c r="F576" t="n">
+        <v>1.0269</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.8915</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>582</v>
+      </c>
+      <c r="B577" t="n">
+        <v>-1.0603</v>
+      </c>
+      <c r="C577" t="n">
+        <v>5.9219</v>
+      </c>
+      <c r="D577" t="n">
+        <v>9.0909</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.9726</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.9396</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>583</v>
+      </c>
+      <c r="B578" t="n">
+        <v>2.8201</v>
+      </c>
+      <c r="C578" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="D578" t="n">
+        <v>5.0893</v>
+      </c>
+      <c r="E578" t="n">
+        <v>-0.9332</v>
+      </c>
+      <c r="F578" t="n">
+        <v>-6.2221</v>
+      </c>
+      <c r="G578" t="n">
+        <v>10.888</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>584</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-1.0971</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-3.7866</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="E579" t="n">
+        <v>-0.4862</v>
+      </c>
+      <c r="F579" t="n">
+        <v>-1.1746</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-3.1459</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>585</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.1664</v>
+      </c>
+      <c r="C580" t="n">
+        <v>-4.0842</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-4.0981</v>
+      </c>
+      <c r="E580" t="n">
+        <v>2.0763</v>
+      </c>
+      <c r="F580" t="n">
+        <v>-4.6258</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-1.2303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1770,6 +1770,30 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-14</t>
   </si>
 </sst>
 </file>
@@ -15444,6 +15468,190 @@
         <v>-1.2303</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>586</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-1.0556</v>
+      </c>
+      <c r="C581" t="n">
+        <v>-1.9355</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-2.8198</v>
+      </c>
+      <c r="E581" t="n">
+        <v>-1.5256</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-5.7698</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>587</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.3369</v>
+      </c>
+      <c r="C582" t="n">
+        <v>-1.1053</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.8845</v>
+      </c>
+      <c r="E582" t="n">
+        <v>2.9769</v>
+      </c>
+      <c r="F582" t="n">
+        <v>5.1996</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1.4171</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>588</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1.8028</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.3991</v>
+      </c>
+      <c r="D583" t="n">
+        <v>2.0552</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1.3864</v>
+      </c>
+      <c r="F583" t="n">
+        <v>6.2819</v>
+      </c>
+      <c r="G583" t="n">
+        <v>6.3086</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>589</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.9961</v>
+      </c>
+      <c r="C584" t="n">
+        <v>2.3854</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-1.7261</v>
+      </c>
+      <c r="E584" t="n">
+        <v>5.9063</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2.2502</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-0.5885</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>590</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.6575</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-1.8121</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="E585" t="n">
+        <v>3.8462</v>
+      </c>
+      <c r="F585" t="n">
+        <v>3.1984</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-4.7262</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>591</v>
+      </c>
+      <c r="B586" t="n">
+        <v>-2.0686</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-0.6064</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-3.423</v>
+      </c>
+      <c r="E586" t="n">
+        <v>4.1799</v>
+      </c>
+      <c r="F586" t="n">
+        <v>-3.6679</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-0.2693</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>592</v>
+      </c>
+      <c r="B587" t="n">
+        <v>-1.0561</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-4.3501</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-3.0597</v>
+      </c>
+      <c r="E587" t="n">
+        <v>-0.2285</v>
+      </c>
+      <c r="F587" t="n">
+        <v>-1.2397</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-3.5306</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>593</v>
+      </c>
+      <c r="B588" t="n">
+        <v>-1.7416</v>
+      </c>
+      <c r="C588" t="n">
+        <v>-0.9983</v>
+      </c>
+      <c r="D588" t="n">
+        <v>-2.5937</v>
+      </c>
+      <c r="E588" t="n">
+        <v>-1.3744</v>
+      </c>
+      <c r="F588" t="n">
+        <v>-4.7818</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-1.4424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="657">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1794,6 +1794,195 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-17</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.754</v>
+        <v>-0.7539</v>
       </c>
       <c r="C23" t="n">
         <v>-0.5749</v>
@@ -2662,7 +2851,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4144</v>
+        <v>0.4143</v>
       </c>
       <c r="C24" t="n">
         <v>1.1565</v>
@@ -2685,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.3067</v>
+        <v>-1.3068</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2846,7 +3035,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3519</v>
+        <v>0.3518</v>
       </c>
       <c r="C32" t="n">
         <v>1.118</v>
@@ -2869,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="C33" t="n">
         <v>0.6552</v>
@@ -3375,7 +3564,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>-3.7187</v>
+        <v>-2.5925</v>
       </c>
       <c r="C55" t="n">
         <v>0.2559</v>
@@ -15650,6 +15839,1455 @@
       </c>
       <c r="G588" t="n">
         <v>-1.4424</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>594</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.5718</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.8123</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1.4437</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.5022</v>
+      </c>
+      <c r="G589" t="n">
+        <v>4.3687</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>595</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1.9329</v>
+      </c>
+      <c r="C590" t="n">
+        <v>4.0845</v>
+      </c>
+      <c r="D590" t="n">
+        <v>10.9424</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2.9141</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="G590" t="n">
+        <v>14.0645</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>596</v>
+      </c>
+      <c r="B591" t="n">
+        <v>1.6732</v>
+      </c>
+      <c r="C591" t="n">
+        <v>-0.4004</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
+      <c r="E591" t="n">
+        <v>-1.8877</v>
+      </c>
+      <c r="F591" t="n">
+        <v>2.2081</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-1.1009</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>597</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.8777</v>
+      </c>
+      <c r="C592" t="n">
+        <v>2.9483</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2.6835</v>
+      </c>
+      <c r="F592" t="n">
+        <v>2.0716</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-2.2263</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>598</v>
+      </c>
+      <c r="B593" t="n">
+        <v>1.0332</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-1.1195</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="E593" t="n">
+        <v>-0.0493</v>
+      </c>
+      <c r="F593" t="n">
+        <v>3.6242</v>
+      </c>
+      <c r="G593" t="n">
+        <v>3.3681</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>599</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="C594" t="n">
+        <v>6.7931</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4.3186</v>
+      </c>
+      <c r="E594" t="n">
+        <v>3.6507</v>
+      </c>
+      <c r="F594" t="n">
+        <v>-2.0425</v>
+      </c>
+      <c r="G594" t="n">
+        <v>9.6374</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>600</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0.8026</v>
+      </c>
+      <c r="C595" t="n">
+        <v>4.4132</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.7796</v>
+      </c>
+      <c r="E595" t="n">
+        <v>-5.5688</v>
+      </c>
+      <c r="F595" t="n">
+        <v>-3.6847</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.9209</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>601</v>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.0531</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.5195</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.6935</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4.4859</v>
+      </c>
+      <c r="F596" t="n">
+        <v>3.8256</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.0415</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>602</v>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.2655</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-2.537</v>
+      </c>
+      <c r="D597" t="n">
+        <v>-3.3113</v>
+      </c>
+      <c r="E597" t="n">
+        <v>-0.6271</v>
+      </c>
+      <c r="F597" t="n">
+        <v>3.3133</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-7.67</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>603</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="C598" t="n">
+        <v>5.5194</v>
+      </c>
+      <c r="D598" t="n">
+        <v>4.7945</v>
+      </c>
+      <c r="E598" t="n">
+        <v>-3.665</v>
+      </c>
+      <c r="F598" t="n">
+        <v>-0.4977</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.2537</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>604</v>
+      </c>
+      <c r="B599" t="n">
+        <v>4.6413</v>
+      </c>
+      <c r="C599" t="n">
+        <v>3.7688</v>
+      </c>
+      <c r="D599" t="n">
+        <v>4.3137</v>
+      </c>
+      <c r="E599" t="n">
+        <v>-1.8393</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.6669</v>
+      </c>
+      <c r="G599" t="n">
+        <v>3.3276</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>605</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-0.1321</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.7519</v>
+      </c>
+      <c r="E600" t="n">
+        <v>-1.771</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.6348</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>606</v>
+      </c>
+      <c r="B601" t="n">
+        <v>-1.0521</v>
+      </c>
+      <c r="C601" t="n">
+        <v>7.538</v>
+      </c>
+      <c r="D601" t="n">
+        <v>6.0697</v>
+      </c>
+      <c r="E601" t="n">
+        <v>-1.9598</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.6954</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>607</v>
+      </c>
+      <c r="B602" t="n">
+        <v>-1.7722</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-1.6807</v>
+      </c>
+      <c r="D602" t="n">
+        <v>-1.3602</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.1066</v>
+      </c>
+      <c r="F602" t="n">
+        <v>-1.9089</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-3.7876</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>608</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0.8763</v>
+      </c>
+      <c r="C603" t="n">
+        <v>-1.9179</v>
+      </c>
+      <c r="D603" t="n">
+        <v>-5.1593</v>
+      </c>
+      <c r="E603" t="n">
+        <v>4.2865</v>
+      </c>
+      <c r="F603" t="n">
+        <v>-0.2502</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-5.0731</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>609</v>
+      </c>
+      <c r="B604" t="n">
+        <v>-1.022</v>
+      </c>
+      <c r="C604" t="n">
+        <v>-5.3347</v>
+      </c>
+      <c r="D604" t="n">
+        <v>-6.7435</v>
+      </c>
+      <c r="E604" t="n">
+        <v>-0.4851</v>
+      </c>
+      <c r="F604" t="n">
+        <v>-1.9509</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-4.7029</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>610</v>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.1033</v>
+      </c>
+      <c r="C605" t="n">
+        <v>-1.3696</v>
+      </c>
+      <c r="D605" t="n">
+        <v>-2.4194</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1.5393</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0</v>
+      </c>
+      <c r="G605" t="n">
+        <v>0.0449</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>611</v>
+      </c>
+      <c r="B606" t="n">
+        <v>-8.5271</v>
+      </c>
+      <c r="C606" t="n">
+        <v>-0.5691</v>
+      </c>
+      <c r="D606" t="n">
+        <v>-0.3857</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1.0611</v>
+      </c>
+      <c r="F606" t="n">
+        <v>-1.137</v>
+      </c>
+      <c r="G606" t="n">
+        <v>8.0269</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>612</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3.7853</v>
+      </c>
+      <c r="C607" t="n">
+        <v>2.0147</v>
+      </c>
+      <c r="D607" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F607" t="n">
+        <v>2.3577</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.9095</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>613</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.6532</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1.1708</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2.6685</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2.3218</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>614</v>
+      </c>
+      <c r="B609" t="n">
+        <v>-1.5143</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.2013</v>
+      </c>
+      <c r="D609" t="n">
+        <v>-0.7891</v>
+      </c>
+      <c r="E609" t="n">
+        <v>-1.2906</v>
+      </c>
+      <c r="F609" t="n">
+        <v>-1.9152</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-0.3185</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>615</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1.5376</v>
+      </c>
+      <c r="C610" t="n">
+        <v>-0.4463</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.7953</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1.5981</v>
+      </c>
+      <c r="F610" t="n">
+        <v>3.2636</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-5.1118</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>616</v>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.5408</v>
+      </c>
+      <c r="C611" t="n">
+        <v>-1.5019</v>
+      </c>
+      <c r="D611" t="n">
+        <v>-0.5523</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="F611" t="n">
+        <v>-1.5127</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-0.5051</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>617</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.5769</v>
+      </c>
+      <c r="C612" t="n">
+        <v>3.1406</v>
+      </c>
+      <c r="D612" t="n">
+        <v>2.6184</v>
+      </c>
+      <c r="E612" t="n">
+        <v>2.5376</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.4382</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>618</v>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.7495</v>
+      </c>
+      <c r="C613" t="n">
+        <v>-1.8976</v>
+      </c>
+      <c r="D613" t="n">
+        <v>-2.5258</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>-1.6843</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-2.2936</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>619</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.6721</v>
+      </c>
+      <c r="C614" t="n">
+        <v>-0.2924</v>
+      </c>
+      <c r="D614" t="n">
+        <v>-3.8604</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.3666</v>
+      </c>
+      <c r="F614" t="n">
+        <v>-1.8513</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-3.6278</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>620</v>
+      </c>
+      <c r="B615" t="n">
+        <v>-1.8568</v>
+      </c>
+      <c r="C615" t="n">
+        <v>-1.8272</v>
+      </c>
+      <c r="D615" t="n">
+        <v>3.3003</v>
+      </c>
+      <c r="E615" t="n">
+        <v>-2.7397</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.6475</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>621</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.6486</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2.5965</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1.6773</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.7552</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-2.9596</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>622</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3.1149</v>
+      </c>
+      <c r="C617" t="n">
+        <v>-1.1422</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.2095</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2.3513</v>
+      </c>
+      <c r="F617" t="n">
+        <v>-1.8878</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-2.9575</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>623</v>
+      </c>
+      <c r="B618" t="n">
+        <v>-1.6667</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1.8124</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
+      <c r="E618" t="n">
+        <v>-1.7117</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1.4431</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.9048</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>624</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2.2246</v>
+      </c>
+      <c r="C619" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1.9859</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1.9707</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1.9805</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-0.6075</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>625</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1.2953</v>
+      </c>
+      <c r="C620" t="n">
+        <v>-0.1078</v>
+      </c>
+      <c r="D620" t="n">
+        <v>-0.5124</v>
+      </c>
+      <c r="E620" t="n">
+        <v>-0.2247</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.6291</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-0.2351</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>626</v>
+      </c>
+      <c r="B621" t="n">
+        <v>1.1765</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2.9145</v>
+      </c>
+      <c r="D621" t="n">
+        <v>3.0131</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1.9369</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2.0386</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2.4976</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>627</v>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.1011</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.4419</v>
+      </c>
+      <c r="F622" t="n">
+        <v>-1.3319</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-1.6092</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>628</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1.3158</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.5439</v>
+      </c>
+      <c r="D623" t="n">
+        <v>-3.5556</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1.1879</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1.6469</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-4.3458</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>629</v>
+      </c>
+      <c r="B624" t="n">
+        <v>-4.5954</v>
+      </c>
+      <c r="C624" t="n">
+        <v>-1.4773</v>
+      </c>
+      <c r="D624" t="n">
+        <v>-1.3569</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.4783</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.7703</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-2.7846</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>630</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2.6702</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1.0771</v>
+      </c>
+      <c r="D625" t="n">
+        <v>-1.5572</v>
+      </c>
+      <c r="E625" t="n">
+        <v>-0.8997</v>
+      </c>
+      <c r="F625" t="n">
+        <v>-1.0279</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-0.1608</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>631</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="C626" t="n">
+        <v>4.2833</v>
+      </c>
+      <c r="D626" t="n">
+        <v>5.0356</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1.0376</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.4794</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2.5267</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>632</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0.7645</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.4809</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.1757</v>
+      </c>
+      <c r="E627" t="n">
+        <v>-2.7813</v>
+      </c>
+      <c r="F627" t="n">
+        <v>-1.1397</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-1.3746</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>633</v>
+      </c>
+      <c r="B628" t="n">
+        <v>-0.7081</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.5454</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.9293</v>
+      </c>
+      <c r="E628" t="n">
+        <v>2.9489</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.4933</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>634</v>
+      </c>
+      <c r="B629" t="n">
+        <v>1.4773</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0</v>
+      </c>
+      <c r="D629" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E629" t="n">
+        <v>-2.1377</v>
+      </c>
+      <c r="F629" t="n">
+        <v>-1.5144</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-1.3732</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>635</v>
+      </c>
+      <c r="B630" t="n">
+        <v>-1.5562</v>
+      </c>
+      <c r="C630" t="n">
+        <v>-1.0309</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.2967</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1.7038</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.5567</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.4918</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>636</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0</v>
+      </c>
+      <c r="E631" t="n">
+        <v>0</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>637</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>638</v>
+      </c>
+      <c r="B633" t="n">
+        <v>-0.2034</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="D633" t="n">
+        <v>-0.9332</v>
+      </c>
+      <c r="E633" t="n">
+        <v>-0.3846</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-2.0594</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>639</v>
+      </c>
+      <c r="B634" t="n">
+        <v>-1.0188</v>
+      </c>
+      <c r="C634" t="n">
+        <v>-1.2641</v>
+      </c>
+      <c r="D634" t="n">
+        <v>-1.8344</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.2145</v>
+      </c>
+      <c r="F634" t="n">
+        <v>-0.5608</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.2445</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>640</v>
+      </c>
+      <c r="B635" t="n">
+        <v>-1.3381</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.4742</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.4293</v>
+      </c>
+      <c r="E635" t="n">
+        <v>-4.3664</v>
+      </c>
+      <c r="F635" t="n">
+        <v>-2.4865</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-1.4146</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>641</v>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.8868</v>
+      </c>
+      <c r="C636" t="n">
+        <v>-1.8877</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.4332</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.7162</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1.1304</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-0.5938</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>642</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.6842</v>
+      </c>
+      <c r="C637" t="n">
+        <v>-0.2405</v>
+      </c>
+      <c r="D637" t="n">
+        <v>-2.9995</v>
+      </c>
+      <c r="E637" t="n">
+        <v>-0.2222</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1.1697</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-0.1493</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>643</v>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.3659</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.5786</v>
+      </c>
+      <c r="D638" t="n">
+        <v>-1.3545</v>
+      </c>
+      <c r="E638" t="n">
+        <v>-1.6036</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1.259</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.0967</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>644</v>
+      </c>
+      <c r="B639" t="n">
+        <v>-2.0986</v>
+      </c>
+      <c r="C639" t="n">
+        <v>-2.6846</v>
+      </c>
+      <c r="D639" t="n">
+        <v>-2.0725</v>
+      </c>
+      <c r="E639" t="n">
+        <v>-1.2675</v>
+      </c>
+      <c r="F639" t="n">
+        <v>-1.9284</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-4.0434</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>645</v>
+      </c>
+      <c r="B640" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="D640" t="n">
+        <v>-0.7672</v>
+      </c>
+      <c r="E640" t="n">
+        <v>-1.0087</v>
+      </c>
+      <c r="F640" t="n">
+        <v>-0.2587</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-0.1233</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>646</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1.2303</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.7731</v>
+      </c>
+      <c r="E641" t="n">
+        <v>4.3075</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2.8534</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1.5024</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>647</v>
+      </c>
+      <c r="B642" t="n">
+        <v>-0.2639</v>
+      </c>
+      <c r="C642" t="n">
+        <v>-0.6806</v>
+      </c>
+      <c r="D642" t="n">
+        <v>-3.0688</v>
+      </c>
+      <c r="E642" t="n">
+        <v>-1.0213</v>
+      </c>
+      <c r="F642" t="n">
+        <v>-3.5057</v>
+      </c>
+      <c r="G642" t="n">
+        <v>2.0377</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>648</v>
+      </c>
+      <c r="B643" t="n">
+        <v>-1.164</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.4405</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.8832</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1.4805</v>
+      </c>
+      <c r="F643" t="n">
+        <v>3.1364</v>
+      </c>
+      <c r="G643" t="n">
+        <v>2.5335</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>649</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="C644" t="n">
+        <v>-0.5848</v>
+      </c>
+      <c r="D644" t="n">
+        <v>3.1342</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1.2671</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.7752</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>650</v>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.533</v>
+      </c>
+      <c r="C645" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="D645" t="n">
+        <v>-0.3377</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1.2775</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.4327</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>651</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1.4469</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1.1286</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.0782</v>
+      </c>
+      <c r="E646" t="n">
+        <v>-0.8264</v>
+      </c>
+      <c r="F646" t="n">
+        <v>-1.8583</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2.202</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>652</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.0528</v>
+      </c>
+      <c r="C647" t="n">
+        <v>2.6201</v>
+      </c>
+      <c r="D647" t="n">
+        <v>3.8542</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1.7105</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1.8682</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2.7166</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>653</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1.7951</v>
+      </c>
+      <c r="C648" t="n">
+        <v>-0.0473</v>
+      </c>
+      <c r="D648" t="n">
+        <v>-0.6018</v>
+      </c>
+      <c r="E648" t="n">
+        <v>-2.1992</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1.5861</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-7.0223</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>654</v>
+      </c>
+      <c r="B649" t="n">
+        <v>1.2967</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.7569</v>
+      </c>
+      <c r="D649" t="n">
+        <v>-0.1766</v>
+      </c>
+      <c r="E649" t="n">
+        <v>5.4233</v>
+      </c>
+      <c r="F649" t="n">
+        <v>-1.4394</v>
+      </c>
+      <c r="G649" t="n">
+        <v>2.3051</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>655</v>
+      </c>
+      <c r="B650" t="n">
+        <v>-1.6385</v>
+      </c>
+      <c r="C650" t="n">
+        <v>-2.3005</v>
+      </c>
+      <c r="D650" t="n">
+        <v>-2.0976</v>
+      </c>
+      <c r="E650" t="n">
+        <v>-3.5132</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-3.3078</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>656</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="C651" t="n">
+        <v>-0.913</v>
+      </c>
+      <c r="D651" t="n">
+        <v>-0.0774</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1.5171</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1.3353</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-0.6941</v>
       </c>
     </row>
   </sheetData>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1983,6 +1983,33 @@
   </si>
   <si>
     <t xml:space="preserve">2020-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-28</t>
   </si>
 </sst>
 </file>
@@ -17290,6 +17317,213 @@
         <v>-0.6941</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>657</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="C652" t="n">
+        <v>-1.8429</v>
+      </c>
+      <c r="D652" t="n">
+        <v>-1.8342</v>
+      </c>
+      <c r="E652" t="n">
+        <v>-1.3664</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-0.8288</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>658</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.8877</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1.0376</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2.6316</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.1299</v>
+      </c>
+      <c r="F653" t="n">
+        <v>6.218</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-0.1208</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>659</v>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.7246</v>
+      </c>
+      <c r="C654" t="n">
+        <v>-4.0587</v>
+      </c>
+      <c r="D654" t="n">
+        <v>-1.7692</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F654" t="n">
+        <v>-0.0918</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-1.7742</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>660</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.8863</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.0522</v>
+      </c>
+      <c r="E655" t="n">
+        <v>2.2582</v>
+      </c>
+      <c r="F655" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-1.8062</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>661</v>
+      </c>
+      <c r="B656" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1.7129</v>
+      </c>
+      <c r="D656" t="n">
+        <v>2.0611</v>
+      </c>
+      <c r="E656" t="n">
+        <v>-1.5833</v>
+      </c>
+      <c r="F656" t="n">
+        <v>-0.2988</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.9473</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>662</v>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.5102</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.9965</v>
+      </c>
+      <c r="D657" t="n">
+        <v>-0.818</v>
+      </c>
+      <c r="E657" t="n">
+        <v>-2.3709</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-0.4873</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>663</v>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.3077</v>
+      </c>
+      <c r="C658" t="n">
+        <v>-1.7267</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.7732</v>
+      </c>
+      <c r="E658" t="n">
+        <v>2.9922</v>
+      </c>
+      <c r="F658" t="n">
+        <v>2.3864</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-0.2857</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>664</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="C659" t="n">
+        <v>-1.4056</v>
+      </c>
+      <c r="D659" t="n">
+        <v>3.0179</v>
+      </c>
+      <c r="E659" t="n">
+        <v>-1.7684</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.5155</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-0.0614</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>665</v>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.9719</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.0815</v>
+      </c>
+      <c r="D660" t="n">
+        <v>-5.7845</v>
+      </c>
+      <c r="E660" t="n">
+        <v>-0.2143</v>
+      </c>
+      <c r="F660" t="n">
+        <v>-1.0479</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-1.3104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="671">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2010,6 +2010,21 @@
   </si>
   <si>
     <t xml:space="preserve">2020-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-04</t>
   </si>
 </sst>
 </file>
@@ -17524,6 +17539,121 @@
         <v>-1.3104</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>666</v>
+      </c>
+      <c r="B661" t="n">
+        <v>-1.0847</v>
+      </c>
+      <c r="C661" t="n">
+        <v>-1.7704</v>
+      </c>
+      <c r="D661" t="n">
+        <v>-4.7167</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1.2027</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1.8251</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-0.3734</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>667</v>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.4178</v>
+      </c>
+      <c r="C662" t="n">
+        <v>-2.631</v>
+      </c>
+      <c r="D662" t="n">
+        <v>-1.8252</v>
+      </c>
+      <c r="E662" t="n">
+        <v>-0.3396</v>
+      </c>
+      <c r="F662" t="n">
+        <v>-0.4426</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-2.9779</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>668</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="C663" t="n">
+        <v>-2.4255</v>
+      </c>
+      <c r="D663" t="n">
+        <v>3.9437</v>
+      </c>
+      <c r="E663" t="n">
+        <v>-0.4685</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2.3116</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1.6312</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>669</v>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.5673</v>
+      </c>
+      <c r="C664" t="n">
+        <v>-0.3925</v>
+      </c>
+      <c r="D664" t="n">
+        <v>2.8455</v>
+      </c>
+      <c r="E664" t="n">
+        <v>-3.1665</v>
+      </c>
+      <c r="F664" t="n">
+        <v>-1.3687</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1.943</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>670</v>
+      </c>
+      <c r="B665" t="n">
+        <v>-3.112</v>
+      </c>
+      <c r="C665" t="n">
+        <v>-1.1165</v>
+      </c>
+      <c r="D665" t="n">
+        <v>2.8722</v>
+      </c>
+      <c r="E665" t="n">
+        <v>-3.7561</v>
+      </c>
+      <c r="F665" t="n">
+        <v>-3.326</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-3.2318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2025,6 +2025,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-08</t>
   </si>
 </sst>
 </file>
@@ -17654,6 +17660,52 @@
         <v>-3.2318</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>671</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1.4989</v>
+      </c>
+      <c r="C666" t="n">
+        <v>-0.2878</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="E666" t="n">
+        <v>3.7649</v>
+      </c>
+      <c r="F666" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="G666" t="n">
+        <v>6.2942</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>672</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-1.2131</v>
+      </c>
+      <c r="C667" t="n">
+        <v>-0.8437</v>
+      </c>
+      <c r="D667" t="n">
+        <v>-0.2817</v>
+      </c>
+      <c r="E667" t="n">
+        <v>-2.4779</v>
+      </c>
+      <c r="F667" t="n">
+        <v>-1.6818</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-2.8399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="683">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2031,6 +2031,36 @@
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-22</t>
   </si>
 </sst>
 </file>
@@ -17706,6 +17736,236 @@
         <v>-2.8399</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>673</v>
+      </c>
+      <c r="B668" t="n">
+        <v>3.3636</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.8733</v>
+      </c>
+      <c r="D668" t="n">
+        <v>2.2856</v>
+      </c>
+      <c r="E668" t="n">
+        <v>2.9038</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1.9131</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-0.5182</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>674</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.3616</v>
+      </c>
+      <c r="C669" t="n">
+        <v>-0.0444</v>
+      </c>
+      <c r="D669" t="n">
+        <v>-0.5523</v>
+      </c>
+      <c r="E669" t="n">
+        <v>-0.8818</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.3754</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.2917</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>675</v>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.3088</v>
+      </c>
+      <c r="C670" t="n">
+        <v>-2.354</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.3114</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.6601</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-1.8284</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>676</v>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.2581</v>
+      </c>
+      <c r="C671" t="n">
+        <v>-0.091</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.8869</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.6995</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1.3757</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>677</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.4658</v>
+      </c>
+      <c r="C672" t="n">
+        <v>-0.2732</v>
+      </c>
+      <c r="D672" t="n">
+        <v>-0.1758</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1.9341</v>
+      </c>
+      <c r="F672" t="n">
+        <v>2.6264</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-0.5846</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>678</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.7213</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.2283</v>
+      </c>
+      <c r="D673" t="n">
+        <v>-0.8302</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1.5093</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1.3325</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-2.394</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>679</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+      <c r="C674" t="n">
+        <v>-1.4348</v>
+      </c>
+      <c r="D674" t="n">
+        <v>-0.1015</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.4248</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.6262</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.8821</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>680</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>681</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>682</v>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.1028</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1</v>
+      </c>
+      <c r="D677" t="n">
+        <v>-0.6486</v>
+      </c>
+      <c r="E677" t="n">
+        <v>-0.5766</v>
+      </c>
+      <c r="F677" t="n">
+        <v>-0.1899</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-5.1641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2061,6 +2061,15 @@
   </si>
   <si>
     <t xml:space="preserve">2020-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-25</t>
   </si>
 </sst>
 </file>
@@ -17966,6 +17975,75 @@
         <v>-5.1641</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>683</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.5661</v>
+      </c>
+      <c r="C678" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1.1153</v>
+      </c>
+      <c r="E678" t="n">
+        <v>-5.1781</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.6776</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>684</v>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.4606</v>
+      </c>
+      <c r="C679" t="n">
+        <v>-1.2725</v>
+      </c>
+      <c r="D679" t="n">
+        <v>-3.6051</v>
+      </c>
+      <c r="E679" t="n">
+        <v>-1.5291</v>
+      </c>
+      <c r="F679" t="n">
+        <v>-1.7114</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-4.8798</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>685</v>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.1542</v>
+      </c>
+      <c r="C680" t="n">
+        <v>-2.3589</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1.5084</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.2579</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.7834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2070,6 +2070,75 @@
   </si>
   <si>
     <t xml:space="preserve">2020-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-28</t>
   </si>
 </sst>
 </file>
@@ -18044,6 +18113,535 @@
         <v>0.7834</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>686</v>
+      </c>
+      <c r="B681" t="n">
+        <v>2.6777</v>
+      </c>
+      <c r="C681" t="n">
+        <v>4.5828</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.8699</v>
+      </c>
+      <c r="E681" t="n">
+        <v>2.7098</v>
+      </c>
+      <c r="F681" t="n">
+        <v>3.9237</v>
+      </c>
+      <c r="G681" t="n">
+        <v>4.2377</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>687</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.6192</v>
+      </c>
+      <c r="D682" t="n">
+        <v>-2.1918</v>
+      </c>
+      <c r="E682" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>688</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.4008</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.8935</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1.5686</v>
+      </c>
+      <c r="E683" t="n">
+        <v>-2.294</v>
+      </c>
+      <c r="F683" t="n">
+        <v>-1.1513</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>689</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="C684" t="n">
+        <v>-1.2776</v>
+      </c>
+      <c r="D684" t="n">
+        <v>-1.5168</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1.3043</v>
+      </c>
+      <c r="F684" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-2.1454</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>690</v>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.3933</v>
+      </c>
+      <c r="C685" t="n">
+        <v>-0.1882</v>
+      </c>
+      <c r="D685" t="n">
+        <v>-3.7805</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1.1159</v>
+      </c>
+      <c r="F685" t="n">
+        <v>-1.4179</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-2.972</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>691</v>
+      </c>
+      <c r="B686" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="C686" t="n">
+        <v>2.546</v>
+      </c>
+      <c r="D686" t="n">
+        <v>4.1909</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1.2733</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1.8286</v>
+      </c>
+      <c r="G686" t="n">
+        <v>2.7617</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>692</v>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.5803</v>
+      </c>
+      <c r="C687" t="n">
+        <v>2.3448</v>
+      </c>
+      <c r="D687" t="n">
+        <v>-0.8101</v>
+      </c>
+      <c r="E687" t="n">
+        <v>-0.8382</v>
+      </c>
+      <c r="F687" t="n">
+        <v>-1.937</v>
+      </c>
+      <c r="G687" t="n">
+        <v>6.5966</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>693</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.8755</v>
+      </c>
+      <c r="C688" t="n">
+        <v>-0.6739</v>
+      </c>
+      <c r="D688" t="n">
+        <v>-1.4362</v>
+      </c>
+      <c r="E688" t="n">
+        <v>-2.071</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1.994</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>694</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.0964</v>
+      </c>
+      <c r="C689" t="n">
+        <v>2.8268</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1.3811</v>
+      </c>
+      <c r="F689" t="n">
+        <v>-0.1433</v>
+      </c>
+      <c r="G689" t="n">
+        <v>9.3483</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>695</v>
+      </c>
+      <c r="B690" t="n">
+        <v>-3.5646</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.2639</v>
+      </c>
+      <c r="D690" t="n">
+        <v>-0.9298</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="F690" t="n">
+        <v>4.3247</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-0.4727</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>696</v>
+      </c>
+      <c r="B691" t="n">
+        <v>3.7962</v>
+      </c>
+      <c r="C691" t="n">
+        <v>1.4477</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.6826</v>
+      </c>
+      <c r="E691" t="n">
+        <v>2.0426</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.5108</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1.5693</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>697</v>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="C692" t="n">
+        <v>-3.027</v>
+      </c>
+      <c r="D692" t="n">
+        <v>-1.6949</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.5421</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.1173</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-2.3989</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>698</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="C693" t="n">
+        <v>1.3601</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.2299</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.3318</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-2.3328</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>699</v>
+      </c>
+      <c r="B694" t="n">
+        <v>-1.8393</v>
+      </c>
+      <c r="C694" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="D694" t="n">
+        <v>-0.6594</v>
+      </c>
+      <c r="E694" t="n">
+        <v>-3.8032</v>
+      </c>
+      <c r="F694" t="n">
+        <v>-1.6758</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-3.3056</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>700</v>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.0986</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.5063</v>
+      </c>
+      <c r="D695" t="n">
+        <v>2.3088</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.8595</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1.1494</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-0.4411</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>701</v>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.9872</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1.7521</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.8745</v>
+      </c>
+      <c r="E696" t="n">
+        <v>-1.7469</v>
+      </c>
+      <c r="F696" t="n">
+        <v>-1.8809</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1.7944</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>702</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.4487</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1.6789</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.5034</v>
+      </c>
+      <c r="E697" t="n">
+        <v>-1.9948</v>
+      </c>
+      <c r="F697" t="n">
+        <v>-1.0583</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-0.1523</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>703</v>
+      </c>
+      <c r="B698" t="n">
+        <v>-2.5038</v>
+      </c>
+      <c r="C698" t="n">
+        <v>-2.8154</v>
+      </c>
+      <c r="D698" t="n">
+        <v>-2.3094</v>
+      </c>
+      <c r="E698" t="n">
+        <v>-1.4159</v>
+      </c>
+      <c r="F698" t="n">
+        <v>-0.8476</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-3.095</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>704</v>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.9759</v>
+      </c>
+      <c r="C699" t="n">
+        <v>-0.1089</v>
+      </c>
+      <c r="D699" t="n">
+        <v>-3.1615</v>
+      </c>
+      <c r="E699" t="n">
+        <v>-0.8977</v>
+      </c>
+      <c r="F699" t="n">
+        <v>-1.0177</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-1.0571</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>705</v>
+      </c>
+      <c r="B700" t="n">
+        <v>-1.4523</v>
+      </c>
+      <c r="C700" t="n">
+        <v>2.2242</v>
+      </c>
+      <c r="D700" t="n">
+        <v>2.8823</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.0906</v>
+      </c>
+      <c r="F700" t="n">
+        <v>-1.3572</v>
+      </c>
+      <c r="G700" t="n">
+        <v>2.3642</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>706</v>
+      </c>
+      <c r="B701" t="n">
+        <v>-3.2105</v>
+      </c>
+      <c r="C701" t="n">
+        <v>-2.0904</v>
+      </c>
+      <c r="D701" t="n">
+        <v>-2.7444</v>
+      </c>
+      <c r="E701" t="n">
+        <v>-0.6787</v>
+      </c>
+      <c r="F701" t="n">
+        <v>-1.3133</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-4.5747</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>707</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0</v>
+      </c>
+      <c r="C702" t="n">
+        <v>-3.5512</v>
+      </c>
+      <c r="D702" t="n">
+        <v>-3.4098</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.4556</v>
+      </c>
+      <c r="F702" t="n">
+        <v>-0.2746</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-3.6072</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>708</v>
+      </c>
+      <c r="B703" t="n">
+        <v>-3.4258</v>
+      </c>
+      <c r="C703" t="n">
+        <v>-3.8401</v>
+      </c>
+      <c r="D703" t="n">
+        <v>-5.4169</v>
+      </c>
+      <c r="E703" t="n">
+        <v>-3.0839</v>
+      </c>
+      <c r="F703" t="n">
+        <v>-4.0881</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-0.507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2139,6 +2139,144 @@
   </si>
   <si>
     <t xml:space="preserve">2020-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-06</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0637</v>
+        <v>0.0638</v>
       </c>
       <c r="C8" t="n">
         <v>0.9259</v>
@@ -2662,7 +2800,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6369</v>
+        <v>-0.637</v>
       </c>
       <c r="C9" t="n">
         <v>-0.6781</v>
@@ -2869,7 +3007,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.6491</v>
+        <v>-1.649</v>
       </c>
       <c r="C18" t="n">
         <v>-2.8106</v>
@@ -3030,7 +3168,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.3068</v>
+        <v>-1.3067</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -3053,7 +3191,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8118</v>
+        <v>-1.8119</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5316</v>
@@ -3099,7 +3237,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7692</v>
+        <v>-0.7693</v>
       </c>
       <c r="C28" t="n">
         <v>-0.3721</v>
@@ -3283,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6242</v>
+        <v>0.6241</v>
       </c>
       <c r="C36" t="n">
         <v>-1.6459</v>
@@ -3605,7 +3743,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3404</v>
+        <v>-0.3403</v>
       </c>
       <c r="C50" t="n">
         <v>0.2437</v>
@@ -3835,7 +3973,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0722</v>
+        <v>-0.0721</v>
       </c>
       <c r="C60" t="n">
         <v>-0.9649</v>
@@ -4111,7 +4249,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6465</v>
+        <v>0.6466</v>
       </c>
       <c r="C72" t="n">
         <v>0.0905</v>
@@ -4226,7 +4364,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>1.919</v>
+        <v>1.9189</v>
       </c>
       <c r="C77" t="n">
         <v>0.3575</v>
@@ -4617,7 +4755,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>1.1798</v>
+        <v>1.1797</v>
       </c>
       <c r="C94" t="n">
         <v>-0.1849</v>
@@ -4709,7 +4847,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.0677</v>
+        <v>-0.0676</v>
       </c>
       <c r="C98" t="n">
         <v>-0.0942</v>
@@ -4893,7 +5031,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2018</v>
+        <v>-0.2017</v>
       </c>
       <c r="C106" t="n">
         <v>-0.8364</v>
@@ -4916,7 +5054,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1455</v>
+        <v>1.1456</v>
       </c>
       <c r="C107" t="n">
         <v>2.1556</v>
@@ -5031,7 +5169,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7334</v>
+        <v>-0.7333</v>
       </c>
       <c r="C112" t="n">
         <v>-2.112</v>
@@ -5238,7 +5376,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2846</v>
+        <v>1.2847</v>
       </c>
       <c r="C121" t="n">
         <v>0.579</v>
@@ -5491,7 +5629,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1951</v>
+        <v>0.195</v>
       </c>
       <c r="C132" t="n">
         <v>-0.1031</v>
@@ -5698,7 +5836,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6494</v>
+        <v>0.6493</v>
       </c>
       <c r="C141" t="n">
         <v>0.267</v>
@@ -5974,7 +6112,7 @@
         <v>158</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.0631</v>
+        <v>-0.063</v>
       </c>
       <c r="C153" t="n">
         <v>-2.012</v>
@@ -6112,7 +6250,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.5067</v>
+        <v>-0.5066</v>
       </c>
       <c r="C159" t="n">
         <v>1.9215</v>
@@ -6388,7 +6526,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.128</v>
+        <v>-0.1279</v>
       </c>
       <c r="C171" t="n">
         <v>-4.1949</v>
@@ -6595,7 +6733,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="n">
-        <v>1.3897</v>
+        <v>1.3898</v>
       </c>
       <c r="C180" t="n">
         <v>4.7337</v>
@@ -7170,7 +7308,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.0198</v>
+        <v>-1.0197</v>
       </c>
       <c r="C205" t="n">
         <v>0.5571</v>
@@ -7285,7 +7423,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6281</v>
+        <v>-0.6282</v>
       </c>
       <c r="C210" t="n">
         <v>4.907</v>
@@ -7423,7 +7561,7 @@
         <v>221</v>
       </c>
       <c r="B216" t="n">
-        <v>1.1466</v>
+        <v>1.1467</v>
       </c>
       <c r="C216" t="n">
         <v>0.488</v>
@@ -7469,7 +7607,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.2399</v>
+        <v>-0.24</v>
       </c>
       <c r="C218" t="n">
         <v>-1.3641</v>
@@ -7768,7 +7906,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>1.0475</v>
+        <v>1.0474</v>
       </c>
       <c r="C231" t="n">
         <v>-0.2278</v>
@@ -7837,7 +7975,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.4414</v>
+        <v>-1.4415</v>
       </c>
       <c r="C234" t="n">
         <v>5.5597</v>
@@ -8021,7 +8159,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1209</v>
+        <v>-0.1208</v>
       </c>
       <c r="C242" t="n">
         <v>-1.9196</v>
@@ -8366,7 +8504,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.6564</v>
+        <v>-1.6565</v>
       </c>
       <c r="C257" t="n">
         <v>0.3474</v>
@@ -8504,7 +8642,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="n">
-        <v>1.4926</v>
+        <v>1.4925</v>
       </c>
       <c r="C263" t="n">
         <v>-2.3256</v>
@@ -8619,7 +8757,7 @@
         <v>273</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8944</v>
+        <v>0.8945</v>
       </c>
       <c r="C268" t="n">
         <v>-0.0816</v>
@@ -8757,7 +8895,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.1754</v>
+        <v>-0.1753</v>
       </c>
       <c r="C274" t="n">
         <v>-0.5138</v>
@@ -8803,7 +8941,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0584</v>
+        <v>-0.0583</v>
       </c>
       <c r="C276" t="n">
         <v>-4</v>
@@ -9355,7 +9493,7 @@
         <v>305</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7174</v>
+        <v>0.7175</v>
       </c>
       <c r="C300" t="n">
         <v>2.4778</v>
@@ -9953,7 +10091,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9843</v>
+        <v>-0.9842</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -11126,7 +11264,7 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2292</v>
+        <v>-0.2293</v>
       </c>
       <c r="C377" t="n">
         <v>-0.0972</v>
@@ -11724,7 +11862,7 @@
         <v>408</v>
       </c>
       <c r="B403" t="n">
-        <v>2.8076</v>
+        <v>2.8075</v>
       </c>
       <c r="C403" t="n">
         <v>3.4044</v>
@@ -12736,7 +12874,7 @@
         <v>452</v>
       </c>
       <c r="B447" t="n">
-        <v>1.859</v>
+        <v>1.8589</v>
       </c>
       <c r="C447" t="n">
         <v>0.7199</v>
@@ -12920,7 +13058,7 @@
         <v>460</v>
       </c>
       <c r="B455" t="n">
-        <v>0.9106</v>
+        <v>0.9105</v>
       </c>
       <c r="C455" t="n">
         <v>-0.8749</v>
@@ -13610,7 +13748,7 @@
         <v>490</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.408</v>
+        <v>-0.4079</v>
       </c>
       <c r="C485" t="n">
         <v>0.1866</v>
@@ -13817,7 +13955,7 @@
         <v>499</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5573</v>
+        <v>0.5572</v>
       </c>
       <c r="C494" t="n">
         <v>0.7533</v>
@@ -13932,7 +14070,7 @@
         <v>504</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.3067</v>
+        <v>-0.3068</v>
       </c>
       <c r="C499" t="n">
         <v>-1.1121</v>
@@ -14047,7 +14185,7 @@
         <v>509</v>
       </c>
       <c r="B504" t="n">
-        <v>1.2556</v>
+        <v>1.2557</v>
       </c>
       <c r="C504" t="n">
         <v>-1.5589</v>
@@ -14185,7 +14323,7 @@
         <v>515</v>
       </c>
       <c r="B510" t="n">
-        <v>0.2863</v>
+        <v>0.2862</v>
       </c>
       <c r="C510" t="n">
         <v>0.1821</v>
@@ -14760,7 +14898,7 @@
         <v>540</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.8905</v>
+        <v>-1.8906</v>
       </c>
       <c r="C535" t="n">
         <v>-1.0435</v>
@@ -16301,7 +16439,7 @@
         <v>607</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.7722</v>
+        <v>-1.7721</v>
       </c>
       <c r="C602" t="n">
         <v>-1.6807</v>
@@ -16531,7 +16669,7 @@
         <v>617</v>
       </c>
       <c r="B612" t="n">
-        <v>1.5769</v>
+        <v>1.577</v>
       </c>
       <c r="C612" t="n">
         <v>3.1406</v>
@@ -17175,7 +17313,7 @@
         <v>645</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.268</v>
+        <v>-0.2679</v>
       </c>
       <c r="C640" t="n">
         <v>0.0985</v>
@@ -17290,7 +17428,7 @@
         <v>650</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.533</v>
+        <v>-0.5331</v>
       </c>
       <c r="C645" t="n">
         <v>-0.098</v>
@@ -18325,7 +18463,7 @@
         <v>695</v>
       </c>
       <c r="B690" t="n">
-        <v>-3.5646</v>
+        <v>-3.5645</v>
       </c>
       <c r="C690" t="n">
         <v>0.2639</v>
@@ -18509,7 +18647,7 @@
         <v>703</v>
       </c>
       <c r="B698" t="n">
-        <v>-2.5038</v>
+        <v>-2.5037</v>
       </c>
       <c r="C698" t="n">
         <v>-2.8154</v>
@@ -18640,6 +18778,1064 @@
       </c>
       <c r="G703" t="n">
         <v>-0.507</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>709</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0.7883</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.4933</v>
+      </c>
+      <c r="D704" t="n">
+        <v>3.7645</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2.4333</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.7067</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-1.2861</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>710</v>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.9497</v>
+      </c>
+      <c r="C705" t="n">
+        <v>-0.7013</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1.1163</v>
+      </c>
+      <c r="E705" t="n">
+        <v>-2.741</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.8114</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1.942</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>711</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.5076</v>
+      </c>
+      <c r="C706" t="n">
+        <v>4.6139</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1.7786</v>
+      </c>
+      <c r="E706" t="n">
+        <v>2.4425</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="G706" t="n">
+        <v>5.0398</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>712</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1.7957</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3.0153</v>
+      </c>
+      <c r="D707" t="n">
+        <v>4.8207</v>
+      </c>
+      <c r="E707" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3.2391</v>
+      </c>
+      <c r="G707" t="n">
+        <v>3.3058</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>713</v>
+      </c>
+      <c r="B708" t="n">
+        <v>2.6461</v>
+      </c>
+      <c r="C708" t="n">
+        <v>-3.4294</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="E708" t="n">
+        <v>7.9577</v>
+      </c>
+      <c r="F708" t="n">
+        <v>5.5801</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.1111</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>714</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3.2798</v>
+      </c>
+      <c r="D709" t="n">
+        <v>-0.373</v>
+      </c>
+      <c r="E709" t="n">
+        <v>6.1781</v>
+      </c>
+      <c r="F709" t="n">
+        <v>-0.3789</v>
+      </c>
+      <c r="G709" t="n">
+        <v>7.1429</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>715</v>
+      </c>
+      <c r="B710" t="n">
+        <v>3.5963</v>
+      </c>
+      <c r="C710" t="n">
+        <v>-1.336</v>
+      </c>
+      <c r="D710" t="n">
+        <v>-2.0737</v>
+      </c>
+      <c r="E710" t="n">
+        <v>-1.2039</v>
+      </c>
+      <c r="F710" t="n">
+        <v>-0.9409</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-1.0256</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>716</v>
+      </c>
+      <c r="B711" t="n">
+        <v>1.0363</v>
+      </c>
+      <c r="C711" t="n">
+        <v>4.9279</v>
+      </c>
+      <c r="D711" t="n">
+        <v>6.5882</v>
+      </c>
+      <c r="E711" t="n">
+        <v>-3.1275</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.2627</v>
+      </c>
+      <c r="G711" t="n">
+        <v>11.9689</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>717</v>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.6588</v>
+      </c>
+      <c r="C712" t="n">
+        <v>4.7599</v>
+      </c>
+      <c r="D712" t="n">
+        <v>2.4007</v>
+      </c>
+      <c r="E712" t="n">
+        <v>-3.6059</v>
+      </c>
+      <c r="F712" t="n">
+        <v>-6.9341</v>
+      </c>
+      <c r="G712" t="n">
+        <v>6.4322</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>718</v>
+      </c>
+      <c r="B713" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="C713" t="n">
+        <v>-0.3029</v>
+      </c>
+      <c r="D713" t="n">
+        <v>4.0151</v>
+      </c>
+      <c r="E713" t="n">
+        <v>-0.3915</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.9313</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-2.7826</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>719</v>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.7392</v>
+      </c>
+      <c r="C714" t="n">
+        <v>0.2228</v>
+      </c>
+      <c r="D714" t="n">
+        <v>-1.0622</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.6987</v>
+      </c>
+      <c r="F714" t="n">
+        <v>2.618</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1.5206</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>720</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.0532</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.4451</v>
+      </c>
+      <c r="E715" t="n">
+        <v>-1.1275</v>
+      </c>
+      <c r="F715" t="n">
+        <v>-0.6483</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-1.8062</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>721</v>
+      </c>
+      <c r="B716" t="n">
+        <v>0.7983</v>
+      </c>
+      <c r="C716" t="n">
+        <v>4.046</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2.1116</v>
+      </c>
+      <c r="E716" t="n">
+        <v>-2.0614</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1.2418</v>
+      </c>
+      <c r="G716" t="n">
+        <v>2.6469</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>722</v>
+      </c>
+      <c r="B717" t="n">
+        <v>-1.8479</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0.4321</v>
+      </c>
+      <c r="D717" t="n">
+        <v>-1.8892</v>
+      </c>
+      <c r="E717" t="n">
+        <v>-1.433</v>
+      </c>
+      <c r="F717" t="n">
+        <v>-0.2079</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-1.6171</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>723</v>
+      </c>
+      <c r="B718" t="n">
+        <v>-5.0565</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="D718" t="n">
+        <v>-0.5725</v>
+      </c>
+      <c r="E718" t="n">
+        <v>2.7715</v>
+      </c>
+      <c r="F718" t="n">
+        <v>-2.8542</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-0.2666</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>724</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1.983</v>
+      </c>
+      <c r="C719" t="n">
+        <v>-2.5653</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0.5234</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.5747</v>
+      </c>
+      <c r="F719" t="n">
+        <v>-0.2573</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-2.4944</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>725</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.2778</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.4139</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.749</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.7473</v>
+      </c>
+      <c r="F720" t="n">
+        <v>2.0211</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.2284</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>726</v>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.8357</v>
+      </c>
+      <c r="C721" t="n">
+        <v>-0.9615</v>
+      </c>
+      <c r="D721" t="n">
+        <v>2.5345</v>
+      </c>
+      <c r="E721" t="n">
+        <v>-0.6981</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1.4129</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>727</v>
+      </c>
+      <c r="B722" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.8932</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0.5874</v>
+      </c>
+      <c r="E722" t="n">
+        <v>-2.8998</v>
+      </c>
+      <c r="F722" t="n">
+        <v>-1.6833</v>
+      </c>
+      <c r="G722" t="n">
+        <v>4.1798</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>728</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0.5119</v>
+      </c>
+      <c r="C723" t="n">
+        <v>0.5717</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1.2652</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1.9005</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1.9658</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0.604</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>729</v>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.0566</v>
+      </c>
+      <c r="C724" t="n">
+        <v>-0.8053</v>
+      </c>
+      <c r="D724" t="n">
+        <v>-1.4416</v>
+      </c>
+      <c r="E724" t="n">
+        <v>2.4423</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.8085</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.1715</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>730</v>
+      </c>
+      <c r="B725" t="n">
+        <v>2.5481</v>
+      </c>
+      <c r="C725" t="n">
+        <v>-0.6686</v>
+      </c>
+      <c r="D725" t="n">
+        <v>2.5841</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.5202</v>
+      </c>
+      <c r="F725" t="n">
+        <v>3.1051</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0.0856</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>731</v>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.1104</v>
+      </c>
+      <c r="C726" t="n">
+        <v>-1.1058</v>
+      </c>
+      <c r="D726" t="n">
+        <v>-1.4259</v>
+      </c>
+      <c r="E726" t="n">
+        <v>3.2342</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1.3163</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-2.438</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>732</v>
+      </c>
+      <c r="B727" t="n">
+        <v>-1.0503</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.1181</v>
+      </c>
+      <c r="D727" t="n">
+        <v>-0.4822</v>
+      </c>
+      <c r="E727" t="n">
+        <v>-1.7544</v>
+      </c>
+      <c r="F727" t="n">
+        <v>-3.2677</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-0.7453</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>733</v>
+      </c>
+      <c r="B728" t="n">
+        <v>0.4469</v>
+      </c>
+      <c r="C728" t="n">
+        <v>-0.0481</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.2976</v>
+      </c>
+      <c r="F728" t="n">
+        <v>-0.6919</v>
+      </c>
+      <c r="G728" t="n">
+        <v>3.6219</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>734</v>
+      </c>
+      <c r="B729" t="n">
+        <v>-2.1135</v>
+      </c>
+      <c r="C729" t="n">
+        <v>-0.4329</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.1696</v>
+      </c>
+      <c r="F729" t="n">
+        <v>-2.3156</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-1.5345</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>735</v>
+      </c>
+      <c r="B730" t="n">
+        <v>-0.5682</v>
+      </c>
+      <c r="C730" t="n">
+        <v>-0.2899</v>
+      </c>
+      <c r="D730" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="E730" t="n">
+        <v>-0.8464</v>
+      </c>
+      <c r="F730" t="n">
+        <v>-0.5664</v>
+      </c>
+      <c r="G730" t="n">
+        <v>4.5887</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>736</v>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.6286</v>
+      </c>
+      <c r="C731" t="n">
+        <v>0.1938</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.2184</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.5548</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.6329</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-0.9106</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>737</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C732" t="n">
+        <v>-0.8704</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1.7593</v>
+      </c>
+      <c r="E732" t="n">
+        <v>1.6553</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-1.4202</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>738</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="C733" t="n">
+        <v>0.5854</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="E733" t="n">
+        <v>-1.7119</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0.9363</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-0.4661</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>739</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="C734" t="n">
+        <v>-2.9098</v>
+      </c>
+      <c r="D734" t="n">
+        <v>-2.0862</v>
+      </c>
+      <c r="E734" t="n">
+        <v>1.7417</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-2.6394</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>740</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1.8836</v>
+      </c>
+      <c r="C735" t="n">
+        <v>-1.2587</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1.1086</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-1.1806</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>741</v>
+      </c>
+      <c r="B736" t="n">
+        <v>2.0728</v>
+      </c>
+      <c r="C736" t="n">
+        <v>2.2359</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.6613</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.8754</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G736" t="n">
+        <v>4.4248</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>742</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0.8782</v>
+      </c>
+      <c r="C737" t="n">
+        <v>-2.761</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E737" t="n">
+        <v>-1.6116</v>
+      </c>
+      <c r="F737" t="n">
+        <v>-1.7224</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-2.0763</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>743</v>
+      </c>
+      <c r="B738" t="n">
+        <v>2.0131</v>
+      </c>
+      <c r="C738" t="n">
+        <v>-0.5699</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0.9511</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F738" t="n">
+        <v>2</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-2.9857</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>744</v>
+      </c>
+      <c r="B739" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C739" t="n">
+        <v>-1.6377</v>
+      </c>
+      <c r="D739" t="n">
+        <v>-0.0897</v>
+      </c>
+      <c r="E739" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="F739" t="n">
+        <v>-1.2129</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-4.0143</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>745</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.7039</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.7482</v>
+      </c>
+      <c r="D740" t="n">
+        <v>2.1554</v>
+      </c>
+      <c r="E740" t="n">
+        <v>-0.6148</v>
+      </c>
+      <c r="F740" t="n">
+        <v>-0.4706</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1.487</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>746</v>
+      </c>
+      <c r="B741" t="n">
+        <v>-1.5183</v>
+      </c>
+      <c r="C741" t="n">
+        <v>2.0863</v>
+      </c>
+      <c r="D741" t="n">
+        <v>-0.8791</v>
+      </c>
+      <c r="E741" t="n">
+        <v>-0.8247</v>
+      </c>
+      <c r="F741" t="n">
+        <v>-1.3363</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-2.7015</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>747</v>
+      </c>
+      <c r="B742" t="n">
+        <v>-0.4253</v>
+      </c>
+      <c r="C742" t="n">
+        <v>-1.3424</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1.3304</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.7484</v>
+      </c>
+      <c r="F742" t="n">
+        <v>2.0629</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.2353</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>748</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2.9651</v>
+      </c>
+      <c r="D743" t="n">
+        <v>-0.5689</v>
+      </c>
+      <c r="E743" t="n">
+        <v>-1.6096</v>
+      </c>
+      <c r="F743" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>749</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1.2247</v>
+      </c>
+      <c r="C744" t="n">
+        <v>0.8876</v>
+      </c>
+      <c r="D744" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E744" t="n">
+        <v>-0.3356</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.2062</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-0.2817</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>750</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.9995</v>
+      </c>
+      <c r="C745" t="n">
+        <v>-0.6843</v>
+      </c>
+      <c r="D745" t="n">
+        <v>-0.6402</v>
+      </c>
+      <c r="E745" t="n">
+        <v>1.8519</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1.7901</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-0.7062</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>751</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="C746" t="n">
+        <v>-0.935</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+      <c r="E746" t="n">
+        <v>1.7769</v>
+      </c>
+      <c r="F746" t="n">
+        <v>-1.5161</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-0.0474</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>752</v>
+      </c>
+      <c r="B747" t="n">
+        <v>0.1562</v>
+      </c>
+      <c r="C747" t="n">
+        <v>0.3477</v>
+      </c>
+      <c r="D747" t="n">
+        <v>-1.4605</v>
+      </c>
+      <c r="E747" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1.3752</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-1.0436</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>753</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.2079</v>
+      </c>
+      <c r="C748" t="n">
+        <v>0.7921</v>
+      </c>
+      <c r="D748" t="n">
+        <v>-3.8361</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1.7685</v>
+      </c>
+      <c r="F748" t="n">
+        <v>-0.8301</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-1.2464</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>754</v>
+      </c>
+      <c r="B749" t="n">
+        <v>-0.1556</v>
+      </c>
+      <c r="C749" t="n">
+        <v>3.4872</v>
+      </c>
+      <c r="D749" t="n">
+        <v>3.3545</v>
+      </c>
+      <c r="E749" t="n">
+        <v>-3.0411</v>
+      </c>
+      <c r="F749" t="n">
+        <v>-3.6341</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.8447</v>
       </c>
     </row>
   </sheetData>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="769">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2277,6 +2277,48 @@
   </si>
   <si>
     <t xml:space="preserve">2021-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-26</t>
   </si>
 </sst>
 </file>
@@ -19838,6 +19880,328 @@
         <v>1.8447</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>755</v>
+      </c>
+      <c r="B750" t="n">
+        <v>2.0779</v>
+      </c>
+      <c r="C750" t="n">
+        <v>4.2715</v>
+      </c>
+      <c r="D750" t="n">
+        <v>5.9649</v>
+      </c>
+      <c r="E750" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>756</v>
+      </c>
+      <c r="B751" t="n">
+        <v>0.6107</v>
+      </c>
+      <c r="C751" t="n">
+        <v>-0.8193</v>
+      </c>
+      <c r="D751" t="n">
+        <v>-2.3179</v>
+      </c>
+      <c r="E751" t="n">
+        <v>3.0426</v>
+      </c>
+      <c r="F751" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="G751" t="n">
+        <v>0.5687</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>757</v>
+      </c>
+      <c r="B752" t="n">
+        <v>0.5058</v>
+      </c>
+      <c r="C752" t="n">
+        <v>-2.2028</v>
+      </c>
+      <c r="D752" t="n">
+        <v>-1.3136</v>
+      </c>
+      <c r="E752" t="n">
+        <v>0.1969</v>
+      </c>
+      <c r="F752" t="n">
+        <v>-2.7124</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-2.4505</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>758</v>
+      </c>
+      <c r="B753" t="n">
+        <v>-1.0569</v>
+      </c>
+      <c r="C753" t="n">
+        <v>4.2703</v>
+      </c>
+      <c r="D753" t="n">
+        <v>-0.9875</v>
+      </c>
+      <c r="E753" t="n">
+        <v>-1.5324</v>
+      </c>
+      <c r="F753" t="n">
+        <v>-0.3674</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.1932</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>759</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.2035</v>
+      </c>
+      <c r="C754" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D754" t="n">
+        <v>-0.3469</v>
+      </c>
+      <c r="E754" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-1.5429</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>760</v>
+      </c>
+      <c r="B755" t="n">
+        <v>0.5076</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1.3562</v>
+      </c>
+      <c r="D755" t="n">
+        <v>-4.9173</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3.2183</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1.6696</v>
+      </c>
+      <c r="G755" t="n">
+        <v>2.2527</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>761</v>
+      </c>
+      <c r="B756" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="C756" t="n">
+        <v>-1.9625</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.5698</v>
+      </c>
+      <c r="E756" t="n">
+        <v>0.9391</v>
+      </c>
+      <c r="F756" t="n">
+        <v>-0.9384</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-2.7778</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>762</v>
+      </c>
+      <c r="B757" t="n">
+        <v>-0.6539</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2.7298</v>
+      </c>
+      <c r="D757" t="n">
+        <v>2.0327</v>
+      </c>
+      <c r="E757" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F757" t="n">
+        <v>0.5813</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.4778</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>763</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0.7595</v>
+      </c>
+      <c r="C758" t="n">
+        <v>0.6643</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1.4725</v>
+      </c>
+      <c r="E758" t="n">
+        <v>-1.0226</v>
+      </c>
+      <c r="F758" t="n">
+        <v>3.3818</v>
+      </c>
+      <c r="G758" t="n">
+        <v>0.3884</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>764</v>
+      </c>
+      <c r="B759" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="C759" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="D759" t="n">
+        <v>-0.5548</v>
+      </c>
+      <c r="E759" t="n">
+        <v>-1.2546</v>
+      </c>
+      <c r="F759" t="n">
+        <v>-1.1387</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.7253</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>765</v>
+      </c>
+      <c r="B760" t="n">
+        <v>0.6993</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1.0101</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1.9743</v>
+      </c>
+      <c r="E760" t="n">
+        <v>-1.3453</v>
+      </c>
+      <c r="F760" t="n">
+        <v>-0.4607</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-2.0643</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>766</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1.3889</v>
+      </c>
+      <c r="C761" t="n">
+        <v>-1.3478</v>
+      </c>
+      <c r="D761" t="n">
+        <v>-1.4731</v>
+      </c>
+      <c r="E761" t="n">
+        <v>0.1136</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1.7883</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-0.3431</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>767</v>
+      </c>
+      <c r="B762" t="n">
+        <v>-0.9785</v>
+      </c>
+      <c r="C762" t="n">
+        <v>-2.9088</v>
+      </c>
+      <c r="D762" t="n">
+        <v>-3.161</v>
+      </c>
+      <c r="E762" t="n">
+        <v>-1.0594</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1.9016</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-0.0492</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>768</v>
+      </c>
+      <c r="B763" t="n">
+        <v>-2.2233</v>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>-0.6617</v>
+      </c>
+      <c r="E763" t="n">
+        <v>-0.5736</v>
+      </c>
+      <c r="F763" t="n">
+        <v>-1.9878</v>
+      </c>
+      <c r="G763" t="n">
+        <v>0.689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="770">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2319,6 +2319,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-27</t>
   </si>
 </sst>
 </file>
@@ -20202,6 +20205,29 @@
         <v>0.689</v>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>769</v>
+      </c>
+      <c r="B764" t="n">
+        <v>-2.1728</v>
+      </c>
+      <c r="C764" t="n">
+        <v>-3.7676</v>
+      </c>
+      <c r="D764" t="n">
+        <v>-3.6856</v>
+      </c>
+      <c r="E764" t="n">
+        <v>-3.8077</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.8071</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -2707,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0891</v>
+        <v>1.089</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -2822,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0638</v>
+        <v>0.0637</v>
       </c>
       <c r="C8" t="n">
         <v>0.9259</v>
@@ -3236,7 +3236,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8119</v>
+        <v>-1.8118</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5316</v>
@@ -3282,7 +3282,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7693</v>
+        <v>-0.7692</v>
       </c>
       <c r="C28" t="n">
         <v>-0.3721</v>
@@ -3535,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0982</v>
+        <v>1.0981</v>
       </c>
       <c r="C39" t="n">
         <v>0.6478</v>
@@ -3696,7 +3696,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2781</v>
+        <v>0.2782</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -3788,7 +3788,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3403</v>
+        <v>-0.3404</v>
       </c>
       <c r="C50" t="n">
         <v>0.2437</v>
@@ -4018,7 +4018,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0721</v>
+        <v>-0.0722</v>
       </c>
       <c r="C60" t="n">
         <v>-0.9649</v>
@@ -4133,7 +4133,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7174</v>
+        <v>0.7173</v>
       </c>
       <c r="C65" t="n">
         <v>1.167</v>
@@ -4547,7 +4547,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3429</v>
+        <v>0.343</v>
       </c>
       <c r="C83" t="n">
         <v>0.0459</v>
@@ -5214,7 +5214,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7333</v>
+        <v>-0.7334</v>
       </c>
       <c r="C112" t="n">
         <v>-2.112</v>
@@ -5881,7 +5881,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6493</v>
+        <v>0.6494</v>
       </c>
       <c r="C141" t="n">
         <v>0.267</v>
@@ -6295,7 +6295,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.5066</v>
+        <v>-0.5067</v>
       </c>
       <c r="C159" t="n">
         <v>1.9215</v>
@@ -6571,7 +6571,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1279</v>
+        <v>-0.128</v>
       </c>
       <c r="C171" t="n">
         <v>-4.1949</v>
@@ -6732,7 +6732,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1276</v>
+        <v>0.1275</v>
       </c>
       <c r="C178" t="n">
         <v>3.5535</v>
@@ -7468,7 +7468,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6282</v>
+        <v>-0.6281</v>
       </c>
       <c r="C210" t="n">
         <v>4.907</v>
@@ -7652,7 +7652,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.24</v>
+        <v>-0.2399</v>
       </c>
       <c r="C218" t="n">
         <v>-1.3641</v>
@@ -7951,7 +7951,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="n">
-        <v>1.0474</v>
+        <v>1.0475</v>
       </c>
       <c r="C231" t="n">
         <v>-0.2278</v>
@@ -7997,7 +7997,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>1.7104</v>
+        <v>1.7105</v>
       </c>
       <c r="C233" t="n">
         <v>-0.1126</v>
@@ -8342,7 +8342,7 @@
         <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>1.8012</v>
+        <v>1.8013</v>
       </c>
       <c r="C248" t="n">
         <v>2.1395</v>
@@ -8549,7 +8549,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.6565</v>
+        <v>-1.6564</v>
       </c>
       <c r="C257" t="n">
         <v>0.3474</v>
@@ -10136,7 +10136,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9842</v>
+        <v>-0.9843</v>
       </c>
       <c r="C326" t="n">
         <v>-0.0393</v>
@@ -10343,7 +10343,7 @@
         <v>340</v>
       </c>
       <c r="B335" t="n">
-        <v>0.2964</v>
+        <v>0.2965</v>
       </c>
       <c r="C335" t="n">
         <v>-2.0364</v>
@@ -10481,7 +10481,7 @@
         <v>346</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3922</v>
+        <v>0.3921</v>
       </c>
       <c r="C341" t="n">
         <v>-1.2059</v>
@@ -11309,7 +11309,7 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2293</v>
+        <v>-0.2292</v>
       </c>
       <c r="C377" t="n">
         <v>-0.0972</v>
@@ -11493,7 +11493,7 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.5992</v>
+        <v>-1.5993</v>
       </c>
       <c r="C385" t="n">
         <v>2.1151</v>
@@ -12919,7 +12919,7 @@
         <v>452</v>
       </c>
       <c r="B447" t="n">
-        <v>1.8589</v>
+        <v>1.859</v>
       </c>
       <c r="C447" t="n">
         <v>0.7199</v>
@@ -13747,7 +13747,7 @@
         <v>488</v>
       </c>
       <c r="B483" t="n">
-        <v>0.2558</v>
+        <v>0.2557</v>
       </c>
       <c r="C483" t="n">
         <v>-0.338</v>
@@ -16484,7 +16484,7 @@
         <v>607</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.7721</v>
+        <v>-1.7722</v>
       </c>
       <c r="C602" t="n">
         <v>-1.6807</v>
@@ -17542,7 +17542,7 @@
         <v>653</v>
       </c>
       <c r="B648" t="n">
-        <v>1.7951</v>
+        <v>1.7952</v>
       </c>
       <c r="C648" t="n">
         <v>-0.0473</v>
@@ -18301,7 +18301,7 @@
         <v>686</v>
       </c>
       <c r="B681" t="n">
-        <v>2.6777</v>
+        <v>2.6776</v>
       </c>
       <c r="C681" t="n">
         <v>4.5828</v>
@@ -18508,7 +18508,7 @@
         <v>695</v>
       </c>
       <c r="B690" t="n">
-        <v>-3.5645</v>
+        <v>-3.5646</v>
       </c>
       <c r="C690" t="n">
         <v>0.2639</v>
@@ -19037,7 +19037,7 @@
         <v>718</v>
       </c>
       <c r="B713" t="n">
-        <v>0.4775</v>
+        <v>0.4774</v>
       </c>
       <c r="C713" t="n">
         <v>-0.3029</v>
@@ -19612,7 +19612,7 @@
         <v>743</v>
       </c>
       <c r="B738" t="n">
-        <v>2.0131</v>
+        <v>2.013</v>
       </c>
       <c r="C738" t="n">
         <v>-0.5699</v>
@@ -19727,7 +19727,7 @@
         <v>748</v>
       </c>
       <c r="B743" t="n">
-        <v>0.267</v>
+        <v>0.2669</v>
       </c>
       <c r="C743" t="n">
         <v>2.9651</v>
@@ -20210,7 +20210,7 @@
         <v>769</v>
       </c>
       <c r="B764" t="n">
-        <v>-2.1728</v>
+        <v>-1.3</v>
       </c>
       <c r="C764" t="n">
         <v>-3.7676</v>

--- a/_book/FILER/DK aktiekurser.xlsx
+++ b/_book/FILER/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -2322,6 +2322,42 @@
   </si>
   <si>
     <t xml:space="preserve">2021-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-12</t>
   </si>
 </sst>
 </file>
@@ -20228,6 +20264,282 @@
         <v>0</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>770</v>
+      </c>
+      <c r="B765" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="C765" t="n">
+        <v>0.6604</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1.1065</v>
+      </c>
+      <c r="E765" t="n">
+        <v>-0.3599</v>
+      </c>
+      <c r="F765" t="n">
+        <v>-0.6159</v>
+      </c>
+      <c r="G765" t="n">
+        <v>4.6432</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>771</v>
+      </c>
+      <c r="B766" t="n">
+        <v>-2.0972</v>
+      </c>
+      <c r="C766" t="n">
+        <v>-1.3589</v>
+      </c>
+      <c r="D766" t="n">
+        <v>-1.7328</v>
+      </c>
+      <c r="E766" t="n">
+        <v>-1.6854</v>
+      </c>
+      <c r="F766" t="n">
+        <v>-2.9126</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-0.9809</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>772</v>
+      </c>
+      <c r="B767" t="n">
+        <v>1.3584</v>
+      </c>
+      <c r="C767" t="n">
+        <v>-0.0475</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1.8561</v>
+      </c>
+      <c r="E767" t="n">
+        <v>1.7551</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3.0213</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-1.2264</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>773</v>
+      </c>
+      <c r="B768" t="n">
+        <v>1.2887</v>
+      </c>
+      <c r="C768" t="n">
+        <v>0.5703</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.8656</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="F768" t="n">
+        <v>2.4577</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1.6237</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>774</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="C769" t="n">
+        <v>0.6616</v>
+      </c>
+      <c r="D769" t="n">
+        <v>2.7552</v>
+      </c>
+      <c r="E769" t="n">
+        <v>-0.6415</v>
+      </c>
+      <c r="F769" t="n">
+        <v>-0.9071</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-1.3158</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>775</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="C770" t="n">
+        <v>1.5962</v>
+      </c>
+      <c r="D770" t="n">
+        <v>-0.3077</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.3228</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1.2612</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-0.0476</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>776</v>
+      </c>
+      <c r="B771" t="n">
+        <v>-0.9655</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3.7431</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0.8447</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1.9687</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1.9533</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>777</v>
+      </c>
+      <c r="B772" t="n">
+        <v>-0.5131</v>
+      </c>
+      <c r="C772" t="n">
+        <v>-0.5791</v>
+      </c>
+      <c r="D772" t="n">
+        <v>1.6711</v>
+      </c>
+      <c r="E772" t="n">
+        <v>-0.5584</v>
+      </c>
+      <c r="F772" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-0.0467</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>778</v>
+      </c>
+      <c r="B773" t="n">
+        <v>1.2893</v>
+      </c>
+      <c r="C773" t="n">
+        <v>-2.3746</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0.8651</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0.9627</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1.0204</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-0.6078</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>779</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="C774" t="n">
+        <v>0.7802</v>
+      </c>
+      <c r="D774" t="n">
+        <v>-5.446</v>
+      </c>
+      <c r="E774" t="n">
+        <v>-1.1124</v>
+      </c>
+      <c r="F774" t="n">
+        <v>-0.8935</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-0.9407</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>780</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0</v>
+      </c>
+      <c r="C775" t="n">
+        <v>-0.0455</v>
+      </c>
+      <c r="D775" t="n">
+        <v>-0.3175</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0.5223</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="G775" t="n">
+        <v>2.5641</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>781</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1.8274</v>
+      </c>
+      <c r="C776" t="n">
+        <v>-0.0456</v>
+      </c>
+      <c r="D776" t="n">
+        <v>1.8198</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0.2398</v>
+      </c>
+      <c r="F776" t="n">
+        <v>7.068</v>
+      </c>
+      <c r="G776" t="n">
+        <v>3.5185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
